--- a/results/AA1000_simulation_10MC_50exp_1batch.xlsx
+++ b/results/AA1000_simulation_10MC_50exp_1batch.xlsx
@@ -45520,14 +45520,14 @@
       </c>
       <c r="F1503" t="inlineStr">
         <is>
-          <t>[57.86499999999999]</t>
+          <t>[52.54]</t>
         </is>
       </c>
       <c r="G1503" t="n">
-        <v>57.86499999999999</v>
+        <v>52.54</v>
       </c>
       <c r="H1503" t="n">
-        <v>57.86499999999999</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1504">
@@ -45550,14 +45550,14 @@
       </c>
       <c r="F1504" t="inlineStr">
         <is>
-          <t>[47.06666666666666]</t>
+          <t>[53.85]</t>
         </is>
       </c>
       <c r="G1504" t="n">
-        <v>47.06666666666666</v>
+        <v>53.85</v>
       </c>
       <c r="H1504" t="n">
-        <v>57.86499999999999</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1505">
@@ -45580,14 +45580,14 @@
       </c>
       <c r="F1505" t="inlineStr">
         <is>
-          <t>[35.0]</t>
+          <t>[4.39]</t>
         </is>
       </c>
       <c r="G1505" t="n">
-        <v>35</v>
+        <v>4.39</v>
       </c>
       <c r="H1505" t="n">
-        <v>57.86499999999999</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1506">
@@ -45610,14 +45610,14 @@
       </c>
       <c r="F1506" t="inlineStr">
         <is>
-          <t>[67.04]</t>
+          <t>[77.29]</t>
         </is>
       </c>
       <c r="G1506" t="n">
-        <v>67.04000000000001</v>
+        <v>77.29000000000001</v>
       </c>
       <c r="H1506" t="n">
-        <v>67.04000000000001</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1507">
@@ -45640,14 +45640,14 @@
       </c>
       <c r="F1507" t="inlineStr">
         <is>
-          <t>[14.71666666666667]</t>
+          <t>[42.0]</t>
         </is>
       </c>
       <c r="G1507" t="n">
-        <v>14.71666666666667</v>
+        <v>42</v>
       </c>
       <c r="H1507" t="n">
-        <v>67.04000000000001</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1508">
@@ -45670,14 +45670,14 @@
       </c>
       <c r="F1508" t="inlineStr">
         <is>
-          <t>[52.54]</t>
+          <t>[22.0]</t>
         </is>
       </c>
       <c r="G1508" t="n">
-        <v>52.54</v>
+        <v>22</v>
       </c>
       <c r="H1508" t="n">
-        <v>67.04000000000001</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1509">
@@ -45700,11 +45700,11 @@
       </c>
       <c r="F1509" t="inlineStr">
         <is>
-          <t>[77.29]</t>
+          <t>[35.0]</t>
         </is>
       </c>
       <c r="G1509" t="n">
-        <v>77.29000000000001</v>
+        <v>35</v>
       </c>
       <c r="H1509" t="n">
         <v>77.29000000000001</v>
@@ -45730,11 +45730,11 @@
       </c>
       <c r="F1510" t="inlineStr">
         <is>
-          <t>[41.35]</t>
+          <t>[70.6]</t>
         </is>
       </c>
       <c r="G1510" t="n">
-        <v>41.35</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="H1510" t="n">
         <v>77.29000000000001</v>
@@ -45760,11 +45760,11 @@
       </c>
       <c r="F1511" t="inlineStr">
         <is>
-          <t>[35.5]</t>
+          <t>[43.34999999999999]</t>
         </is>
       </c>
       <c r="G1511" t="n">
-        <v>35.5</v>
+        <v>43.34999999999999</v>
       </c>
       <c r="H1511" t="n">
         <v>77.29000000000001</v>
@@ -45790,11 +45790,11 @@
       </c>
       <c r="F1512" t="inlineStr">
         <is>
-          <t>[74.2]</t>
+          <t>[21.45]</t>
         </is>
       </c>
       <c r="G1512" t="n">
-        <v>74.2</v>
+        <v>21.45</v>
       </c>
       <c r="H1512" t="n">
         <v>77.29000000000001</v>
@@ -45820,14 +45820,14 @@
       </c>
       <c r="F1513" t="inlineStr">
         <is>
-          <t>[80.53]</t>
+          <t>[21.05]</t>
         </is>
       </c>
       <c r="G1513" t="n">
-        <v>80.53</v>
+        <v>21.05</v>
       </c>
       <c r="H1513" t="n">
-        <v>80.53</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1514">
@@ -45850,14 +45850,14 @@
       </c>
       <c r="F1514" t="inlineStr">
         <is>
-          <t>[87.54]</t>
+          <t>[35.57]</t>
         </is>
       </c>
       <c r="G1514" t="n">
-        <v>87.54000000000001</v>
+        <v>35.57</v>
       </c>
       <c r="H1514" t="n">
-        <v>87.54000000000001</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1515">
@@ -45880,14 +45880,14 @@
       </c>
       <c r="F1515" t="inlineStr">
         <is>
-          <t>[47.0]</t>
+          <t>[81.65]</t>
         </is>
       </c>
       <c r="G1515" t="n">
-        <v>47</v>
+        <v>81.65000000000001</v>
       </c>
       <c r="H1515" t="n">
-        <v>87.54000000000001</v>
+        <v>81.65000000000001</v>
       </c>
     </row>
     <row r="1516">
@@ -45910,14 +45910,14 @@
       </c>
       <c r="F1516" t="inlineStr">
         <is>
-          <t>[93.59]</t>
+          <t>[65.8]</t>
         </is>
       </c>
       <c r="G1516" t="n">
-        <v>93.59</v>
+        <v>65.8</v>
       </c>
       <c r="H1516" t="n">
-        <v>93.59</v>
+        <v>81.65000000000001</v>
       </c>
     </row>
     <row r="1517">
@@ -45940,14 +45940,14 @@
       </c>
       <c r="F1517" t="inlineStr">
         <is>
-          <t>[53.85]</t>
+          <t>[85.78999999999999]</t>
         </is>
       </c>
       <c r="G1517" t="n">
-        <v>53.85</v>
+        <v>85.78999999999999</v>
       </c>
       <c r="H1517" t="n">
-        <v>93.59</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1518">
@@ -45970,14 +45970,14 @@
       </c>
       <c r="F1518" t="inlineStr">
         <is>
-          <t>[55.94]</t>
+          <t>[80.244]</t>
         </is>
       </c>
       <c r="G1518" t="n">
-        <v>55.94</v>
+        <v>80.244</v>
       </c>
       <c r="H1518" t="n">
-        <v>93.59</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1519">
@@ -46000,14 +46000,14 @@
       </c>
       <c r="F1519" t="inlineStr">
         <is>
-          <t>[92.24000000000001]</t>
+          <t>[54.5]</t>
         </is>
       </c>
       <c r="G1519" t="n">
-        <v>92.24000000000001</v>
+        <v>54.5</v>
       </c>
       <c r="H1519" t="n">
-        <v>93.59</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1520">
@@ -46030,14 +46030,14 @@
       </c>
       <c r="F1520" t="inlineStr">
         <is>
-          <t>[66.06]</t>
+          <t>[67.0]</t>
         </is>
       </c>
       <c r="G1520" t="n">
-        <v>66.06</v>
+        <v>67</v>
       </c>
       <c r="H1520" t="n">
-        <v>93.59</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1521">
@@ -46060,14 +46060,14 @@
       </c>
       <c r="F1521" t="inlineStr">
         <is>
-          <t>[20.036]</t>
+          <t>[73.975]</t>
         </is>
       </c>
       <c r="G1521" t="n">
-        <v>20.036</v>
+        <v>73.97499999999999</v>
       </c>
       <c r="H1521" t="n">
-        <v>93.59</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1522">
@@ -46090,14 +46090,14 @@
       </c>
       <c r="F1522" t="inlineStr">
         <is>
-          <t>[78.075]</t>
+          <t>[79.74]</t>
         </is>
       </c>
       <c r="G1522" t="n">
-        <v>78.075</v>
+        <v>79.73999999999999</v>
       </c>
       <c r="H1522" t="n">
-        <v>93.59</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1523">
@@ -46120,14 +46120,14 @@
       </c>
       <c r="F1523" t="inlineStr">
         <is>
-          <t>[43.34999999999999]</t>
+          <t>[90.0]</t>
         </is>
       </c>
       <c r="G1523" t="n">
-        <v>43.34999999999999</v>
+        <v>90</v>
       </c>
       <c r="H1523" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1524">
@@ -46150,14 +46150,14 @@
       </c>
       <c r="F1524" t="inlineStr">
         <is>
-          <t>[67.0]</t>
+          <t>[80.08000000000001]</t>
         </is>
       </c>
       <c r="G1524" t="n">
-        <v>67</v>
+        <v>80.08000000000001</v>
       </c>
       <c r="H1524" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1525">
@@ -46180,14 +46180,14 @@
       </c>
       <c r="F1525" t="inlineStr">
         <is>
-          <t>[84.0]</t>
+          <t>[86.01]</t>
         </is>
       </c>
       <c r="G1525" t="n">
-        <v>84</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="H1525" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1526">
@@ -46210,14 +46210,14 @@
       </c>
       <c r="F1526" t="inlineStr">
         <is>
-          <t>[35.0]</t>
+          <t>[61.0]</t>
         </is>
       </c>
       <c r="G1526" t="n">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="H1526" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1527">
@@ -46240,14 +46240,14 @@
       </c>
       <c r="F1527" t="inlineStr">
         <is>
-          <t>[81.71000000000001]</t>
+          <t>[88.46666666666665]</t>
         </is>
       </c>
       <c r="G1527" t="n">
-        <v>81.71000000000001</v>
+        <v>88.46666666666665</v>
       </c>
       <c r="H1527" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1528">
@@ -46270,14 +46270,14 @@
       </c>
       <c r="F1528" t="inlineStr">
         <is>
-          <t>[84.0]</t>
+          <t>[92.44333333333333]</t>
         </is>
       </c>
       <c r="G1528" t="n">
-        <v>84</v>
+        <v>92.44333333333333</v>
       </c>
       <c r="H1528" t="n">
-        <v>93.59</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1529">
@@ -46300,14 +46300,14 @@
       </c>
       <c r="F1529" t="inlineStr">
         <is>
-          <t>[56.848]</t>
+          <t>[89.99000000000001]</t>
         </is>
       </c>
       <c r="G1529" t="n">
-        <v>56.848</v>
+        <v>89.99000000000001</v>
       </c>
       <c r="H1529" t="n">
-        <v>93.59</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1530">
@@ -46330,14 +46330,14 @@
       </c>
       <c r="F1530" t="inlineStr">
         <is>
-          <t>[42.02]</t>
+          <t>[86.69285714285715]</t>
         </is>
       </c>
       <c r="G1530" t="n">
-        <v>42.02</v>
+        <v>86.69285714285715</v>
       </c>
       <c r="H1530" t="n">
-        <v>93.59</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1531">
@@ -46360,14 +46360,14 @@
       </c>
       <c r="F1531" t="inlineStr">
         <is>
-          <t>[84.0]</t>
+          <t>[50.22799999999999]</t>
         </is>
       </c>
       <c r="G1531" t="n">
-        <v>84</v>
+        <v>50.22799999999999</v>
       </c>
       <c r="H1531" t="n">
-        <v>93.59</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1532">
@@ -46390,14 +46390,14 @@
       </c>
       <c r="F1532" t="inlineStr">
         <is>
-          <t>[84.0]</t>
+          <t>[92.24000000000001]</t>
         </is>
       </c>
       <c r="G1532" t="n">
-        <v>84</v>
+        <v>92.24000000000001</v>
       </c>
       <c r="H1532" t="n">
-        <v>93.59</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1533">
@@ -46420,14 +46420,14 @@
       </c>
       <c r="F1533" t="inlineStr">
         <is>
-          <t>[17.97666666666667]</t>
+          <t>[43.962]</t>
         </is>
       </c>
       <c r="G1533" t="n">
-        <v>17.97666666666667</v>
+        <v>43.962</v>
       </c>
       <c r="H1533" t="n">
-        <v>93.59</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1534">
@@ -46450,14 +46450,14 @@
       </c>
       <c r="F1534" t="inlineStr">
         <is>
-          <t>[53.37]</t>
+          <t>[88.53000000000002]</t>
         </is>
       </c>
       <c r="G1534" t="n">
-        <v>53.37</v>
+        <v>88.53000000000002</v>
       </c>
       <c r="H1534" t="n">
-        <v>93.59</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1535">
@@ -46480,14 +46480,14 @@
       </c>
       <c r="F1535" t="inlineStr">
         <is>
-          <t>[58.55]</t>
+          <t>[44.876]</t>
         </is>
       </c>
       <c r="G1535" t="n">
-        <v>58.55</v>
+        <v>44.876</v>
       </c>
       <c r="H1535" t="n">
-        <v>93.59</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1536">
@@ -46510,11 +46510,11 @@
       </c>
       <c r="F1536" t="inlineStr">
         <is>
-          <t>[67.4]</t>
+          <t>[93.59]</t>
         </is>
       </c>
       <c r="G1536" t="n">
-        <v>67.40000000000001</v>
+        <v>93.59</v>
       </c>
       <c r="H1536" t="n">
         <v>93.59</v>
@@ -46540,11 +46540,11 @@
       </c>
       <c r="F1537" t="inlineStr">
         <is>
-          <t>[83.43]</t>
+          <t>[85.87666666666667]</t>
         </is>
       </c>
       <c r="G1537" t="n">
-        <v>83.43000000000001</v>
+        <v>85.87666666666667</v>
       </c>
       <c r="H1537" t="n">
         <v>93.59</v>
@@ -46570,11 +46570,11 @@
       </c>
       <c r="F1538" t="inlineStr">
         <is>
-          <t>[86.65]</t>
+          <t>[80.595]</t>
         </is>
       </c>
       <c r="G1538" t="n">
-        <v>86.65000000000001</v>
+        <v>80.595</v>
       </c>
       <c r="H1538" t="n">
         <v>93.59</v>
@@ -46600,11 +46600,11 @@
       </c>
       <c r="F1539" t="inlineStr">
         <is>
-          <t>[85.5]</t>
+          <t>[90.66333333333334]</t>
         </is>
       </c>
       <c r="G1539" t="n">
-        <v>85.5</v>
+        <v>90.66333333333334</v>
       </c>
       <c r="H1539" t="n">
         <v>93.59</v>
@@ -46630,14 +46630,14 @@
       </c>
       <c r="F1540" t="inlineStr">
         <is>
-          <t>[81.36636363636363]</t>
+          <t>[96.2]</t>
         </is>
       </c>
       <c r="G1540" t="n">
-        <v>81.36636363636363</v>
+        <v>96.2</v>
       </c>
       <c r="H1540" t="n">
-        <v>93.59</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="1541">
@@ -46660,14 +46660,14 @@
       </c>
       <c r="F1541" t="inlineStr">
         <is>
-          <t>[87.5]</t>
+          <t>[95.8]</t>
         </is>
       </c>
       <c r="G1541" t="n">
-        <v>87.5</v>
+        <v>95.8</v>
       </c>
       <c r="H1541" t="n">
-        <v>93.59</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="1542">
@@ -46690,14 +46690,14 @@
       </c>
       <c r="F1542" t="inlineStr">
         <is>
-          <t>[73.9]</t>
+          <t>[93.1]</t>
         </is>
       </c>
       <c r="G1542" t="n">
-        <v>73.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="H1542" t="n">
-        <v>93.59</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="1543">
@@ -46720,14 +46720,14 @@
       </c>
       <c r="F1543" t="inlineStr">
         <is>
-          <t>[70.0]</t>
+          <t>[42.66666666666666]</t>
         </is>
       </c>
       <c r="G1543" t="n">
-        <v>70</v>
+        <v>42.66666666666666</v>
       </c>
       <c r="H1543" t="n">
-        <v>93.59</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="1544">
@@ -46750,14 +46750,14 @@
       </c>
       <c r="F1544" t="inlineStr">
         <is>
-          <t>[49.8]</t>
+          <t>[81.36636363636363]</t>
         </is>
       </c>
       <c r="G1544" t="n">
-        <v>49.8</v>
+        <v>81.36636363636363</v>
       </c>
       <c r="H1544" t="n">
-        <v>93.59</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="1545">
@@ -46780,14 +46780,14 @@
       </c>
       <c r="F1545" t="inlineStr">
         <is>
-          <t>[90.0]</t>
+          <t>[64.72]</t>
         </is>
       </c>
       <c r="G1545" t="n">
-        <v>90</v>
+        <v>64.72</v>
       </c>
       <c r="H1545" t="n">
-        <v>93.59</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="1546">
@@ -46810,14 +46810,14 @@
       </c>
       <c r="F1546" t="inlineStr">
         <is>
-          <t>[92.0]</t>
+          <t>[47.06666666666666]</t>
         </is>
       </c>
       <c r="G1546" t="n">
-        <v>92</v>
+        <v>47.06666666666666</v>
       </c>
       <c r="H1546" t="n">
-        <v>93.59</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="1547">
@@ -46840,14 +46840,14 @@
       </c>
       <c r="F1547" t="inlineStr">
         <is>
-          <t>[66.23333333333333]</t>
+          <t>[87.54]</t>
         </is>
       </c>
       <c r="G1547" t="n">
-        <v>66.23333333333333</v>
+        <v>87.54000000000001</v>
       </c>
       <c r="H1547" t="n">
-        <v>93.59</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="1548">
@@ -46870,14 +46870,14 @@
       </c>
       <c r="F1548" t="inlineStr">
         <is>
-          <t>[77.985]</t>
+          <t>[91.06]</t>
         </is>
       </c>
       <c r="G1548" t="n">
-        <v>77.985</v>
+        <v>91.06</v>
       </c>
       <c r="H1548" t="n">
-        <v>93.59</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="1549">
@@ -46900,11 +46900,11 @@
       </c>
       <c r="F1549" t="inlineStr">
         <is>
-          <t>[96.2]</t>
+          <t>[83.38]</t>
         </is>
       </c>
       <c r="G1549" t="n">
-        <v>96.2</v>
+        <v>83.38</v>
       </c>
       <c r="H1549" t="n">
         <v>96.2</v>
@@ -46930,11 +46930,11 @@
       </c>
       <c r="F1550" t="inlineStr">
         <is>
-          <t>[95.8]</t>
+          <t>[82.46333333333332]</t>
         </is>
       </c>
       <c r="G1550" t="n">
-        <v>95.8</v>
+        <v>82.46333333333332</v>
       </c>
       <c r="H1550" t="n">
         <v>96.2</v>
@@ -46960,11 +46960,11 @@
       </c>
       <c r="F1551" t="inlineStr">
         <is>
-          <t>[93.1]</t>
+          <t>[85.84]</t>
         </is>
       </c>
       <c r="G1551" t="n">
-        <v>93.09999999999999</v>
+        <v>85.84</v>
       </c>
       <c r="H1551" t="n">
         <v>96.2</v>
@@ -47020,11 +47020,11 @@
       </c>
       <c r="F1553" t="inlineStr">
         <is>
-          <t>[47.06666666666666]</t>
+          <t>[52.54]</t>
         </is>
       </c>
       <c r="G1553" t="n">
-        <v>47.06666666666666</v>
+        <v>52.54</v>
       </c>
       <c r="H1553" t="n">
         <v>88.53000000000002</v>
@@ -47050,11 +47050,11 @@
       </c>
       <c r="F1554" t="inlineStr">
         <is>
-          <t>[68.104]</t>
+          <t>[53.85]</t>
         </is>
       </c>
       <c r="G1554" t="n">
-        <v>68.104</v>
+        <v>53.85</v>
       </c>
       <c r="H1554" t="n">
         <v>88.53000000000002</v>
@@ -47080,11 +47080,11 @@
       </c>
       <c r="F1555" t="inlineStr">
         <is>
-          <t>[65.0]</t>
+          <t>[4.39]</t>
         </is>
       </c>
       <c r="G1555" t="n">
-        <v>65</v>
+        <v>4.39</v>
       </c>
       <c r="H1555" t="n">
         <v>88.53000000000002</v>
@@ -47110,11 +47110,11 @@
       </c>
       <c r="F1556" t="inlineStr">
         <is>
-          <t>[52.54]</t>
+          <t>[77.29]</t>
         </is>
       </c>
       <c r="G1556" t="n">
-        <v>52.54</v>
+        <v>77.29000000000001</v>
       </c>
       <c r="H1556" t="n">
         <v>88.53000000000002</v>
@@ -47140,11 +47140,11 @@
       </c>
       <c r="F1557" t="inlineStr">
         <is>
-          <t>[35.5]</t>
+          <t>[42.0]</t>
         </is>
       </c>
       <c r="G1557" t="n">
-        <v>35.5</v>
+        <v>42</v>
       </c>
       <c r="H1557" t="n">
         <v>88.53000000000002</v>
@@ -47170,11 +47170,11 @@
       </c>
       <c r="F1558" t="inlineStr">
         <is>
-          <t>[17.97666666666667]</t>
+          <t>[22.0]</t>
         </is>
       </c>
       <c r="G1558" t="n">
-        <v>17.97666666666667</v>
+        <v>22</v>
       </c>
       <c r="H1558" t="n">
         <v>88.53000000000002</v>
@@ -47200,11 +47200,11 @@
       </c>
       <c r="F1559" t="inlineStr">
         <is>
-          <t>[41.35]</t>
+          <t>[35.0]</t>
         </is>
       </c>
       <c r="G1559" t="n">
-        <v>41.35</v>
+        <v>35</v>
       </c>
       <c r="H1559" t="n">
         <v>88.53000000000002</v>
@@ -47230,11 +47230,11 @@
       </c>
       <c r="F1560" t="inlineStr">
         <is>
-          <t>[53.37]</t>
+          <t>[68.104]</t>
         </is>
       </c>
       <c r="G1560" t="n">
-        <v>53.37</v>
+        <v>68.104</v>
       </c>
       <c r="H1560" t="n">
         <v>88.53000000000002</v>
@@ -47260,11 +47260,11 @@
       </c>
       <c r="F1561" t="inlineStr">
         <is>
-          <t>[53.85]</t>
+          <t>[43.34999999999999]</t>
         </is>
       </c>
       <c r="G1561" t="n">
-        <v>53.85</v>
+        <v>43.34999999999999</v>
       </c>
       <c r="H1561" t="n">
         <v>88.53000000000002</v>
@@ -47290,11 +47290,11 @@
       </c>
       <c r="F1562" t="inlineStr">
         <is>
-          <t>[67.04]</t>
+          <t>[63.16666666666666]</t>
         </is>
       </c>
       <c r="G1562" t="n">
-        <v>67.04000000000001</v>
+        <v>63.16666666666666</v>
       </c>
       <c r="H1562" t="n">
         <v>88.53000000000002</v>
@@ -47320,11 +47320,11 @@
       </c>
       <c r="F1563" t="inlineStr">
         <is>
-          <t>[74.2]</t>
+          <t>[21.45]</t>
         </is>
       </c>
       <c r="G1563" t="n">
-        <v>74.2</v>
+        <v>21.45</v>
       </c>
       <c r="H1563" t="n">
         <v>88.53000000000002</v>
@@ -47350,11 +47350,11 @@
       </c>
       <c r="F1564" t="inlineStr">
         <is>
-          <t>[55.94]</t>
+          <t>[33.4]</t>
         </is>
       </c>
       <c r="G1564" t="n">
-        <v>55.94</v>
+        <v>33.4</v>
       </c>
       <c r="H1564" t="n">
         <v>88.53000000000002</v>
@@ -47380,11 +47380,11 @@
       </c>
       <c r="F1565" t="inlineStr">
         <is>
-          <t>[42.0]</t>
+          <t>[61.0]</t>
         </is>
       </c>
       <c r="G1565" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="H1565" t="n">
         <v>88.53000000000002</v>
@@ -47410,11 +47410,11 @@
       </c>
       <c r="F1566" t="inlineStr">
         <is>
-          <t>[65.0]</t>
+          <t>[56.848]</t>
         </is>
       </c>
       <c r="G1566" t="n">
-        <v>65</v>
+        <v>56.848</v>
       </c>
       <c r="H1566" t="n">
         <v>88.53000000000002</v>
@@ -47440,11 +47440,11 @@
       </c>
       <c r="F1567" t="inlineStr">
         <is>
-          <t>[44.11]</t>
+          <t>[58.45]</t>
         </is>
       </c>
       <c r="G1567" t="n">
-        <v>44.11</v>
+        <v>58.45</v>
       </c>
       <c r="H1567" t="n">
         <v>88.53000000000002</v>
@@ -47470,11 +47470,11 @@
       </c>
       <c r="F1568" t="inlineStr">
         <is>
-          <t>[23.35]</t>
+          <t>[53.37]</t>
         </is>
       </c>
       <c r="G1568" t="n">
-        <v>23.35</v>
+        <v>53.37</v>
       </c>
       <c r="H1568" t="n">
         <v>88.53000000000002</v>
@@ -47500,11 +47500,11 @@
       </c>
       <c r="F1569" t="inlineStr">
         <is>
-          <t>[47.0]</t>
+          <t>[55.94]</t>
         </is>
       </c>
       <c r="G1569" t="n">
-        <v>47</v>
+        <v>55.94</v>
       </c>
       <c r="H1569" t="n">
         <v>88.53000000000002</v>
@@ -47530,11 +47530,11 @@
       </c>
       <c r="F1570" t="inlineStr">
         <is>
-          <t>[80.53]</t>
+          <t>[86.69285714285715]</t>
         </is>
       </c>
       <c r="G1570" t="n">
-        <v>80.53</v>
+        <v>86.69285714285715</v>
       </c>
       <c r="H1570" t="n">
         <v>88.53000000000002</v>
@@ -47560,11 +47560,11 @@
       </c>
       <c r="F1571" t="inlineStr">
         <is>
-          <t>[87.54]</t>
+          <t>[81.2]</t>
         </is>
       </c>
       <c r="G1571" t="n">
-        <v>87.54000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="H1571" t="n">
         <v>88.53000000000002</v>
@@ -47590,14 +47590,14 @@
       </c>
       <c r="F1572" t="inlineStr">
         <is>
-          <t>[93.59]</t>
+          <t>[66.06]</t>
         </is>
       </c>
       <c r="G1572" t="n">
-        <v>93.59</v>
+        <v>66.06</v>
       </c>
       <c r="H1572" t="n">
-        <v>93.59</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1573">
@@ -47620,14 +47620,14 @@
       </c>
       <c r="F1573" t="inlineStr">
         <is>
-          <t>[4.39]</t>
+          <t>[85.87666666666667]</t>
         </is>
       </c>
       <c r="G1573" t="n">
-        <v>4.39</v>
+        <v>85.87666666666667</v>
       </c>
       <c r="H1573" t="n">
-        <v>93.59</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1574">
@@ -47650,14 +47650,14 @@
       </c>
       <c r="F1574" t="inlineStr">
         <is>
-          <t>[66.06]</t>
+          <t>[88.16]</t>
         </is>
       </c>
       <c r="G1574" t="n">
-        <v>66.06</v>
+        <v>88.16</v>
       </c>
       <c r="H1574" t="n">
-        <v>93.59</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1575">
@@ -47680,14 +47680,14 @@
       </c>
       <c r="F1575" t="inlineStr">
         <is>
-          <t>[78.075]</t>
+          <t>[77.77]</t>
         </is>
       </c>
       <c r="G1575" t="n">
-        <v>78.075</v>
+        <v>77.77</v>
       </c>
       <c r="H1575" t="n">
-        <v>93.59</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1576">
@@ -47710,14 +47710,14 @@
       </c>
       <c r="F1576" t="inlineStr">
         <is>
-          <t>[50.22799999999999]</t>
+          <t>[74.2]</t>
         </is>
       </c>
       <c r="G1576" t="n">
-        <v>50.22799999999999</v>
+        <v>74.2</v>
       </c>
       <c r="H1576" t="n">
-        <v>93.59</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1577">
@@ -47740,14 +47740,14 @@
       </c>
       <c r="F1577" t="inlineStr">
         <is>
-          <t>[63.16666666666666]</t>
+          <t>[44.11]</t>
         </is>
       </c>
       <c r="G1577" t="n">
-        <v>63.16666666666666</v>
+        <v>44.11</v>
       </c>
       <c r="H1577" t="n">
-        <v>93.59</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1578">
@@ -47770,14 +47770,14 @@
       </c>
       <c r="F1578" t="inlineStr">
         <is>
-          <t>[81.71000000000001]</t>
+          <t>[43.962]</t>
         </is>
       </c>
       <c r="G1578" t="n">
-        <v>81.71000000000001</v>
+        <v>43.962</v>
       </c>
       <c r="H1578" t="n">
-        <v>93.59</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1579">
@@ -47800,14 +47800,14 @@
       </c>
       <c r="F1579" t="inlineStr">
         <is>
-          <t>[92.24000000000001]</t>
+          <t>[50.22799999999999]</t>
         </is>
       </c>
       <c r="G1579" t="n">
-        <v>92.24000000000001</v>
+        <v>50.22799999999999</v>
       </c>
       <c r="H1579" t="n">
-        <v>93.59</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1580">
@@ -47830,14 +47830,14 @@
       </c>
       <c r="F1580" t="inlineStr">
         <is>
-          <t>[43.34999999999999]</t>
+          <t>[81.36636363636363]</t>
         </is>
       </c>
       <c r="G1580" t="n">
-        <v>43.34999999999999</v>
+        <v>81.36636363636363</v>
       </c>
       <c r="H1580" t="n">
-        <v>93.59</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1581">
@@ -47860,14 +47860,14 @@
       </c>
       <c r="F1581" t="inlineStr">
         <is>
-          <t>[96.2]</t>
+          <t>[42.66666666666666]</t>
         </is>
       </c>
       <c r="G1581" t="n">
-        <v>96.2</v>
+        <v>42.66666666666666</v>
       </c>
       <c r="H1581" t="n">
-        <v>96.2</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1582">
@@ -47890,14 +47890,14 @@
       </c>
       <c r="F1582" t="inlineStr">
         <is>
-          <t>[95.8]</t>
+          <t>[54.5]</t>
         </is>
       </c>
       <c r="G1582" t="n">
-        <v>95.8</v>
+        <v>54.5</v>
       </c>
       <c r="H1582" t="n">
-        <v>96.2</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1583">
@@ -47920,14 +47920,14 @@
       </c>
       <c r="F1583" t="inlineStr">
         <is>
-          <t>[83.43]</t>
+          <t>[67.0]</t>
         </is>
       </c>
       <c r="G1583" t="n">
-        <v>83.43000000000001</v>
+        <v>67</v>
       </c>
       <c r="H1583" t="n">
-        <v>96.2</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1584">
@@ -47950,14 +47950,14 @@
       </c>
       <c r="F1584" t="inlineStr">
         <is>
-          <t>[93.1]</t>
+          <t>[17.97666666666667]</t>
         </is>
       </c>
       <c r="G1584" t="n">
-        <v>93.09999999999999</v>
+        <v>17.97666666666667</v>
       </c>
       <c r="H1584" t="n">
-        <v>96.2</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1585">
@@ -47980,14 +47980,14 @@
       </c>
       <c r="F1585" t="inlineStr">
         <is>
-          <t>[81.36636363636363]</t>
+          <t>[86.01]</t>
         </is>
       </c>
       <c r="G1585" t="n">
-        <v>81.36636363636363</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="H1585" t="n">
-        <v>96.2</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1586">
@@ -48010,14 +48010,14 @@
       </c>
       <c r="F1586" t="inlineStr">
         <is>
-          <t>[58.55]</t>
+          <t>[76.845]</t>
         </is>
       </c>
       <c r="G1586" t="n">
-        <v>58.55</v>
+        <v>76.845</v>
       </c>
       <c r="H1586" t="n">
-        <v>96.2</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1587">
@@ -48040,14 +48040,14 @@
       </c>
       <c r="F1587" t="inlineStr">
         <is>
-          <t>[14.71666666666667]</t>
+          <t>[73.975]</t>
         </is>
       </c>
       <c r="G1587" t="n">
-        <v>14.71666666666667</v>
+        <v>73.97499999999999</v>
       </c>
       <c r="H1587" t="n">
-        <v>96.2</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1588">
@@ -48070,14 +48070,14 @@
       </c>
       <c r="F1588" t="inlineStr">
         <is>
-          <t>[67.4]</t>
+          <t>[23.35]</t>
         </is>
       </c>
       <c r="G1588" t="n">
-        <v>67.40000000000001</v>
+        <v>23.35</v>
       </c>
       <c r="H1588" t="n">
-        <v>96.2</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1589">
@@ -48100,14 +48100,14 @@
       </c>
       <c r="F1589" t="inlineStr">
         <is>
-          <t>[86.65]</t>
+          <t>[23.8]</t>
         </is>
       </c>
       <c r="G1589" t="n">
-        <v>86.65000000000001</v>
+        <v>23.8</v>
       </c>
       <c r="H1589" t="n">
-        <v>96.2</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1590">
@@ -48137,7 +48137,7 @@
         <v>77.985</v>
       </c>
       <c r="H1590" t="n">
-        <v>96.2</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1591">
@@ -48160,14 +48160,14 @@
       </c>
       <c r="F1591" t="inlineStr">
         <is>
-          <t>[73.9]</t>
+          <t>[21.05]</t>
         </is>
       </c>
       <c r="G1591" t="n">
-        <v>73.90000000000001</v>
+        <v>21.05</v>
       </c>
       <c r="H1591" t="n">
-        <v>96.2</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1592">
@@ -48190,14 +48190,14 @@
       </c>
       <c r="F1592" t="inlineStr">
         <is>
-          <t>[70.0]</t>
+          <t>[47.06666666666666]</t>
         </is>
       </c>
       <c r="G1592" t="n">
-        <v>70</v>
+        <v>47.06666666666666</v>
       </c>
       <c r="H1592" t="n">
-        <v>96.2</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1593">
@@ -48220,14 +48220,14 @@
       </c>
       <c r="F1593" t="inlineStr">
         <is>
-          <t>[49.8]</t>
+          <t>[83.43]</t>
         </is>
       </c>
       <c r="G1593" t="n">
-        <v>49.8</v>
+        <v>83.43000000000001</v>
       </c>
       <c r="H1593" t="n">
-        <v>96.2</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1594">
@@ -48250,14 +48250,14 @@
       </c>
       <c r="F1594" t="inlineStr">
         <is>
-          <t>[67.0]</t>
+          <t>[69.9]</t>
         </is>
       </c>
       <c r="G1594" t="n">
-        <v>67</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="H1594" t="n">
-        <v>96.2</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1595">
@@ -48280,14 +48280,14 @@
       </c>
       <c r="F1595" t="inlineStr">
         <is>
-          <t>[56.848]</t>
+          <t>[81.71000000000001]</t>
         </is>
       </c>
       <c r="G1595" t="n">
-        <v>56.848</v>
+        <v>81.71000000000001</v>
       </c>
       <c r="H1595" t="n">
-        <v>96.2</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1596">
@@ -48310,14 +48310,14 @@
       </c>
       <c r="F1596" t="inlineStr">
         <is>
-          <t>[62.66666666666666]</t>
+          <t>[62.76333333333333]</t>
         </is>
       </c>
       <c r="G1596" t="n">
-        <v>62.66666666666666</v>
+        <v>62.76333333333333</v>
       </c>
       <c r="H1596" t="n">
-        <v>96.2</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1597">
@@ -48340,14 +48340,14 @@
       </c>
       <c r="F1597" t="inlineStr">
         <is>
-          <t>[57.0]</t>
+          <t>[35.57]</t>
         </is>
       </c>
       <c r="G1597" t="n">
-        <v>57</v>
+        <v>35.57</v>
       </c>
       <c r="H1597" t="n">
-        <v>96.2</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1598">
@@ -48370,14 +48370,14 @@
       </c>
       <c r="F1598" t="inlineStr">
         <is>
-          <t>[49.0]</t>
+          <t>[78.075]</t>
         </is>
       </c>
       <c r="G1598" t="n">
-        <v>49</v>
+        <v>78.075</v>
       </c>
       <c r="H1598" t="n">
-        <v>96.2</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1599">
@@ -48400,14 +48400,14 @@
       </c>
       <c r="F1599" t="inlineStr">
         <is>
-          <t>[23.8]</t>
+          <t>[67.04]</t>
         </is>
       </c>
       <c r="G1599" t="n">
-        <v>23.8</v>
+        <v>67.04000000000001</v>
       </c>
       <c r="H1599" t="n">
-        <v>96.2</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1600">
@@ -48430,14 +48430,14 @@
       </c>
       <c r="F1600" t="inlineStr">
         <is>
-          <t>[42.66666666666666]</t>
+          <t>[78.0]</t>
         </is>
       </c>
       <c r="G1600" t="n">
-        <v>42.66666666666666</v>
+        <v>78</v>
       </c>
       <c r="H1600" t="n">
-        <v>96.2</v>
+        <v>88.53000000000002</v>
       </c>
     </row>
     <row r="1601">
@@ -48460,14 +48460,14 @@
       </c>
       <c r="F1601" t="inlineStr">
         <is>
-          <t>[42.5]</t>
+          <t>[92.24000000000001]</t>
         </is>
       </c>
       <c r="G1601" t="n">
-        <v>42.5</v>
+        <v>92.24000000000001</v>
       </c>
       <c r="H1601" t="n">
-        <v>96.2</v>
+        <v>92.24000000000001</v>
       </c>
     </row>
     <row r="1602">
@@ -48520,14 +48520,14 @@
       </c>
       <c r="F1603" t="inlineStr">
         <is>
-          <t>[83.742]</t>
+          <t>[52.54]</t>
         </is>
       </c>
       <c r="G1603" t="n">
-        <v>83.742</v>
+        <v>52.54</v>
       </c>
       <c r="H1603" t="n">
-        <v>83.742</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="1604">
@@ -48550,14 +48550,14 @@
       </c>
       <c r="F1604" t="inlineStr">
         <is>
-          <t>[52.54]</t>
+          <t>[53.85]</t>
         </is>
       </c>
       <c r="G1604" t="n">
-        <v>52.54</v>
+        <v>53.85</v>
       </c>
       <c r="H1604" t="n">
-        <v>83.742</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="1605">
@@ -48580,14 +48580,14 @@
       </c>
       <c r="F1605" t="inlineStr">
         <is>
-          <t>[67.04]</t>
+          <t>[4.39]</t>
         </is>
       </c>
       <c r="G1605" t="n">
-        <v>67.04000000000001</v>
+        <v>4.39</v>
       </c>
       <c r="H1605" t="n">
-        <v>83.742</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="1606">
@@ -48610,14 +48610,14 @@
       </c>
       <c r="F1606" t="inlineStr">
         <is>
-          <t>[29.7]</t>
+          <t>[77.29]</t>
         </is>
       </c>
       <c r="G1606" t="n">
-        <v>29.7</v>
+        <v>77.29000000000001</v>
       </c>
       <c r="H1606" t="n">
-        <v>83.742</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1607">
@@ -48640,14 +48640,14 @@
       </c>
       <c r="F1607" t="inlineStr">
         <is>
-          <t>[65.0]</t>
+          <t>[42.0]</t>
         </is>
       </c>
       <c r="G1607" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="H1607" t="n">
-        <v>83.742</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1608">
@@ -48670,14 +48670,14 @@
       </c>
       <c r="F1608" t="inlineStr">
         <is>
-          <t>[35.0]</t>
+          <t>[22.0]</t>
         </is>
       </c>
       <c r="G1608" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H1608" t="n">
-        <v>83.742</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1609">
@@ -48700,14 +48700,14 @@
       </c>
       <c r="F1609" t="inlineStr">
         <is>
-          <t>[14.71666666666667]</t>
+          <t>[68.104]</t>
         </is>
       </c>
       <c r="G1609" t="n">
-        <v>14.71666666666667</v>
+        <v>68.104</v>
       </c>
       <c r="H1609" t="n">
-        <v>83.742</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1610">
@@ -48730,14 +48730,14 @@
       </c>
       <c r="F1610" t="inlineStr">
         <is>
-          <t>[77.29]</t>
+          <t>[35.0]</t>
         </is>
       </c>
       <c r="G1610" t="n">
+        <v>35</v>
+      </c>
+      <c r="H1610" t="n">
         <v>77.29000000000001</v>
-      </c>
-      <c r="H1610" t="n">
-        <v>83.742</v>
       </c>
     </row>
     <row r="1611">
@@ -48760,14 +48760,14 @@
       </c>
       <c r="F1611" t="inlineStr">
         <is>
-          <t>[74.2]</t>
+          <t>[43.34999999999999]</t>
         </is>
       </c>
       <c r="G1611" t="n">
-        <v>74.2</v>
+        <v>43.34999999999999</v>
       </c>
       <c r="H1611" t="n">
-        <v>83.742</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1612">
@@ -48790,14 +48790,14 @@
       </c>
       <c r="F1612" t="inlineStr">
         <is>
-          <t>[47.0]</t>
+          <t>[70.6]</t>
         </is>
       </c>
       <c r="G1612" t="n">
-        <v>47</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="H1612" t="n">
-        <v>83.742</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1613">
@@ -48820,14 +48820,14 @@
       </c>
       <c r="F1613" t="inlineStr">
         <is>
-          <t>[41.35]</t>
+          <t>[21.45]</t>
         </is>
       </c>
       <c r="G1613" t="n">
-        <v>41.35</v>
+        <v>21.45</v>
       </c>
       <c r="H1613" t="n">
-        <v>83.742</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1614">
@@ -48850,14 +48850,14 @@
       </c>
       <c r="F1614" t="inlineStr">
         <is>
-          <t>[68.104]</t>
+          <t>[33.4]</t>
         </is>
       </c>
       <c r="G1614" t="n">
-        <v>68.104</v>
+        <v>33.4</v>
       </c>
       <c r="H1614" t="n">
-        <v>83.742</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1615">
@@ -48880,14 +48880,14 @@
       </c>
       <c r="F1615" t="inlineStr">
         <is>
-          <t>[53.85]</t>
+          <t>[21.05]</t>
         </is>
       </c>
       <c r="G1615" t="n">
-        <v>53.85</v>
+        <v>21.05</v>
       </c>
       <c r="H1615" t="n">
-        <v>83.742</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1616">
@@ -48910,14 +48910,14 @@
       </c>
       <c r="F1616" t="inlineStr">
         <is>
-          <t>[80.53]</t>
+          <t>[31.55]</t>
         </is>
       </c>
       <c r="G1616" t="n">
-        <v>80.53</v>
+        <v>31.55</v>
       </c>
       <c r="H1616" t="n">
-        <v>83.742</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1617">
@@ -48940,14 +48940,14 @@
       </c>
       <c r="F1617" t="inlineStr">
         <is>
-          <t>[87.54]</t>
+          <t>[56.848]</t>
         </is>
       </c>
       <c r="G1617" t="n">
-        <v>87.54000000000001</v>
+        <v>56.848</v>
       </c>
       <c r="H1617" t="n">
-        <v>87.54000000000001</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1618">
@@ -48970,14 +48970,14 @@
       </c>
       <c r="F1618" t="inlineStr">
         <is>
-          <t>[63.16666666666666]</t>
+          <t>[14.71666666666667]</t>
         </is>
       </c>
       <c r="G1618" t="n">
-        <v>63.16666666666666</v>
+        <v>14.71666666666667</v>
       </c>
       <c r="H1618" t="n">
-        <v>87.54000000000001</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1619">
@@ -49000,14 +49000,14 @@
       </c>
       <c r="F1619" t="inlineStr">
         <is>
-          <t>[78.075]</t>
+          <t>[17.97666666666667]</t>
         </is>
       </c>
       <c r="G1619" t="n">
-        <v>78.075</v>
+        <v>17.97666666666667</v>
       </c>
       <c r="H1619" t="n">
-        <v>87.54000000000001</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1620">
@@ -49030,14 +49030,14 @@
       </c>
       <c r="F1620" t="inlineStr">
         <is>
-          <t>[44.11]</t>
+          <t>[79.77]</t>
         </is>
       </c>
       <c r="G1620" t="n">
-        <v>44.11</v>
+        <v>79.77</v>
       </c>
       <c r="H1620" t="n">
-        <v>87.54000000000001</v>
+        <v>79.77</v>
       </c>
     </row>
     <row r="1621">
@@ -49060,14 +49060,14 @@
       </c>
       <c r="F1621" t="inlineStr">
         <is>
-          <t>[81.71000000000001]</t>
+          <t>[23.35]</t>
         </is>
       </c>
       <c r="G1621" t="n">
-        <v>81.71000000000001</v>
+        <v>23.35</v>
       </c>
       <c r="H1621" t="n">
-        <v>87.54000000000001</v>
+        <v>79.77</v>
       </c>
     </row>
     <row r="1622">
@@ -49090,14 +49090,14 @@
       </c>
       <c r="F1622" t="inlineStr">
         <is>
-          <t>[30.87]</t>
+          <t>[39.33]</t>
         </is>
       </c>
       <c r="G1622" t="n">
-        <v>30.87</v>
+        <v>39.33</v>
       </c>
       <c r="H1622" t="n">
-        <v>87.54000000000001</v>
+        <v>79.77</v>
       </c>
     </row>
     <row r="1623">
@@ -49120,14 +49120,14 @@
       </c>
       <c r="F1623" t="inlineStr">
         <is>
-          <t>[17.97666666666667]</t>
+          <t>[40.31]</t>
         </is>
       </c>
       <c r="G1623" t="n">
-        <v>17.97666666666667</v>
+        <v>40.31</v>
       </c>
       <c r="H1623" t="n">
-        <v>87.54000000000001</v>
+        <v>79.77</v>
       </c>
     </row>
     <row r="1624">
@@ -49150,14 +49150,14 @@
       </c>
       <c r="F1624" t="inlineStr">
         <is>
-          <t>[4.39]</t>
+          <t>[77.22]</t>
         </is>
       </c>
       <c r="G1624" t="n">
-        <v>4.39</v>
+        <v>77.22</v>
       </c>
       <c r="H1624" t="n">
-        <v>87.54000000000001</v>
+        <v>79.77</v>
       </c>
     </row>
     <row r="1625">
@@ -49180,14 +49180,14 @@
       </c>
       <c r="F1625" t="inlineStr">
         <is>
-          <t>[83.43]</t>
+          <t>[67.0]</t>
         </is>
       </c>
       <c r="G1625" t="n">
-        <v>83.43000000000001</v>
+        <v>67</v>
       </c>
       <c r="H1625" t="n">
-        <v>87.54000000000001</v>
+        <v>79.77</v>
       </c>
     </row>
     <row r="1626">
@@ -49210,14 +49210,14 @@
       </c>
       <c r="F1626" t="inlineStr">
         <is>
-          <t>[66.06]</t>
+          <t>[86.01]</t>
         </is>
       </c>
       <c r="G1626" t="n">
-        <v>66.06</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="H1626" t="n">
-        <v>87.54000000000001</v>
+        <v>86.01000000000001</v>
       </c>
     </row>
     <row r="1627">
@@ -49240,14 +49240,14 @@
       </c>
       <c r="F1627" t="inlineStr">
         <is>
-          <t>[20.036]</t>
+          <t>[76.845]</t>
         </is>
       </c>
       <c r="G1627" t="n">
-        <v>20.036</v>
+        <v>76.845</v>
       </c>
       <c r="H1627" t="n">
-        <v>87.54000000000001</v>
+        <v>86.01000000000001</v>
       </c>
     </row>
     <row r="1628">
@@ -49270,14 +49270,14 @@
       </c>
       <c r="F1628" t="inlineStr">
         <is>
-          <t>[53.37]</t>
+          <t>[62.76333333333333]</t>
         </is>
       </c>
       <c r="G1628" t="n">
-        <v>53.37</v>
+        <v>62.76333333333333</v>
       </c>
       <c r="H1628" t="n">
-        <v>87.54000000000001</v>
+        <v>86.01000000000001</v>
       </c>
     </row>
     <row r="1629">
@@ -49300,14 +49300,14 @@
       </c>
       <c r="F1629" t="inlineStr">
         <is>
-          <t>[56.848]</t>
+          <t>[47.06666666666666]</t>
         </is>
       </c>
       <c r="G1629" t="n">
-        <v>56.848</v>
+        <v>47.06666666666666</v>
       </c>
       <c r="H1629" t="n">
-        <v>87.54000000000001</v>
+        <v>86.01000000000001</v>
       </c>
     </row>
     <row r="1630">
@@ -49330,14 +49330,14 @@
       </c>
       <c r="F1630" t="inlineStr">
         <is>
-          <t>[23.35]</t>
+          <t>[61.0]</t>
         </is>
       </c>
       <c r="G1630" t="n">
-        <v>23.35</v>
+        <v>61</v>
       </c>
       <c r="H1630" t="n">
-        <v>87.54000000000001</v>
+        <v>86.01000000000001</v>
       </c>
     </row>
     <row r="1631">
@@ -49360,14 +49360,14 @@
       </c>
       <c r="F1631" t="inlineStr">
         <is>
-          <t>[42.0]</t>
+          <t>[88.46666666666665]</t>
         </is>
       </c>
       <c r="G1631" t="n">
-        <v>42</v>
+        <v>88.46666666666665</v>
       </c>
       <c r="H1631" t="n">
-        <v>87.54000000000001</v>
+        <v>88.46666666666665</v>
       </c>
     </row>
     <row r="1632">
@@ -49390,14 +49390,14 @@
       </c>
       <c r="F1632" t="inlineStr">
         <is>
-          <t>[81.36636363636363]</t>
+          <t>[82.46333333333332]</t>
         </is>
       </c>
       <c r="G1632" t="n">
-        <v>81.36636363636363</v>
+        <v>82.46333333333332</v>
       </c>
       <c r="H1632" t="n">
-        <v>87.54000000000001</v>
+        <v>88.46666666666665</v>
       </c>
     </row>
     <row r="1633">
@@ -49420,14 +49420,14 @@
       </c>
       <c r="F1633" t="inlineStr">
         <is>
-          <t>[93.59]</t>
+          <t>[72.01333333333334]</t>
         </is>
       </c>
       <c r="G1633" t="n">
-        <v>93.59</v>
+        <v>72.01333333333334</v>
       </c>
       <c r="H1633" t="n">
-        <v>93.59</v>
+        <v>88.46666666666665</v>
       </c>
     </row>
     <row r="1634">
@@ -49450,14 +49450,14 @@
       </c>
       <c r="F1634" t="inlineStr">
         <is>
-          <t>[55.94]</t>
+          <t>[89.99000000000001]</t>
         </is>
       </c>
       <c r="G1634" t="n">
-        <v>55.94</v>
+        <v>89.99000000000001</v>
       </c>
       <c r="H1634" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1635">
@@ -49480,14 +49480,14 @@
       </c>
       <c r="F1635" t="inlineStr">
         <is>
-          <t>[92.24000000000001]</t>
+          <t>[83.38]</t>
         </is>
       </c>
       <c r="G1635" t="n">
-        <v>92.24000000000001</v>
+        <v>83.38</v>
       </c>
       <c r="H1635" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1636">
@@ -49510,14 +49510,14 @@
       </c>
       <c r="F1636" t="inlineStr">
         <is>
-          <t>[43.34999999999999]</t>
+          <t>[77.01333333333334]</t>
         </is>
       </c>
       <c r="G1636" t="n">
-        <v>43.34999999999999</v>
+        <v>77.01333333333334</v>
       </c>
       <c r="H1636" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1637">
@@ -49540,14 +49540,14 @@
       </c>
       <c r="F1637" t="inlineStr">
         <is>
-          <t>[58.55]</t>
+          <t>[72.22333333333334]</t>
         </is>
       </c>
       <c r="G1637" t="n">
-        <v>58.55</v>
+        <v>72.22333333333334</v>
       </c>
       <c r="H1637" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1638">
@@ -49570,14 +49570,14 @@
       </c>
       <c r="F1638" t="inlineStr">
         <is>
-          <t>[67.4]</t>
+          <t>[92.44333333333333]</t>
         </is>
       </c>
       <c r="G1638" t="n">
-        <v>67.40000000000001</v>
+        <v>92.44333333333333</v>
       </c>
       <c r="H1638" t="n">
-        <v>93.59</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1639">
@@ -49600,14 +49600,14 @@
       </c>
       <c r="F1639" t="inlineStr">
         <is>
-          <t>[86.65]</t>
+          <t>[88.53000000000002]</t>
         </is>
       </c>
       <c r="G1639" t="n">
-        <v>86.65000000000001</v>
+        <v>88.53000000000002</v>
       </c>
       <c r="H1639" t="n">
-        <v>93.59</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1640">
@@ -49630,14 +49630,14 @@
       </c>
       <c r="F1640" t="inlineStr">
         <is>
-          <t>[93.1]</t>
+          <t>[82.95333333333333]</t>
         </is>
       </c>
       <c r="G1640" t="n">
-        <v>93.09999999999999</v>
+        <v>82.95333333333333</v>
       </c>
       <c r="H1640" t="n">
-        <v>93.59</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1641">
@@ -49660,14 +49660,14 @@
       </c>
       <c r="F1641" t="inlineStr">
         <is>
-          <t>[95.8]</t>
+          <t>[78.34666666666668]</t>
         </is>
       </c>
       <c r="G1641" t="n">
-        <v>95.8</v>
+        <v>78.34666666666668</v>
       </c>
       <c r="H1641" t="n">
-        <v>95.8</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1642">
@@ -49690,14 +49690,14 @@
       </c>
       <c r="F1642" t="inlineStr">
         <is>
-          <t>[96.2]</t>
+          <t>[86.69285714285715]</t>
         </is>
       </c>
       <c r="G1642" t="n">
-        <v>96.2</v>
+        <v>86.69285714285715</v>
       </c>
       <c r="H1642" t="n">
-        <v>96.2</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1643">
@@ -49720,14 +49720,14 @@
       </c>
       <c r="F1643" t="inlineStr">
         <is>
-          <t>[73.9]</t>
+          <t>[81.2]</t>
         </is>
       </c>
       <c r="G1643" t="n">
-        <v>73.90000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="H1643" t="n">
-        <v>96.2</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1644">
@@ -49750,14 +49750,14 @@
       </c>
       <c r="F1644" t="inlineStr">
         <is>
-          <t>[70.0]</t>
+          <t>[77.985]</t>
         </is>
       </c>
       <c r="G1644" t="n">
-        <v>70</v>
+        <v>77.985</v>
       </c>
       <c r="H1644" t="n">
-        <v>96.2</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1645">
@@ -49780,14 +49780,14 @@
       </c>
       <c r="F1645" t="inlineStr">
         <is>
-          <t>[49.8]</t>
+          <t>[80.595]</t>
         </is>
       </c>
       <c r="G1645" t="n">
-        <v>49.8</v>
+        <v>80.595</v>
       </c>
       <c r="H1645" t="n">
-        <v>96.2</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1646">
@@ -49810,14 +49810,14 @@
       </c>
       <c r="F1646" t="inlineStr">
         <is>
-          <t>[67.0]</t>
+          <t>[82.39]</t>
         </is>
       </c>
       <c r="G1646" t="n">
-        <v>67</v>
+        <v>82.39</v>
       </c>
       <c r="H1646" t="n">
-        <v>96.2</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1647">
@@ -49840,14 +49840,14 @@
       </c>
       <c r="F1647" t="inlineStr">
         <is>
-          <t>[62.66666666666666]</t>
+          <t>[85.87666666666667]</t>
         </is>
       </c>
       <c r="G1647" t="n">
-        <v>62.66666666666666</v>
+        <v>85.87666666666667</v>
       </c>
       <c r="H1647" t="n">
-        <v>96.2</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1648">
@@ -49870,14 +49870,14 @@
       </c>
       <c r="F1648" t="inlineStr">
         <is>
-          <t>[57.0]</t>
+          <t>[88.16]</t>
         </is>
       </c>
       <c r="G1648" t="n">
-        <v>57</v>
+        <v>88.16</v>
       </c>
       <c r="H1648" t="n">
-        <v>96.2</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1649">
@@ -49900,14 +49900,14 @@
       </c>
       <c r="F1649" t="inlineStr">
         <is>
-          <t>[49.0]</t>
+          <t>[77.77]</t>
         </is>
       </c>
       <c r="G1649" t="n">
-        <v>49</v>
+        <v>77.77</v>
       </c>
       <c r="H1649" t="n">
-        <v>96.2</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1650">
@@ -49930,14 +49930,14 @@
       </c>
       <c r="F1650" t="inlineStr">
         <is>
-          <t>[42.66666666666666]</t>
+          <t>[92.24000000000001]</t>
         </is>
       </c>
       <c r="G1650" t="n">
-        <v>42.66666666666666</v>
+        <v>92.24000000000001</v>
       </c>
       <c r="H1650" t="n">
-        <v>96.2</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1651">
@@ -49960,14 +49960,14 @@
       </c>
       <c r="F1651" t="inlineStr">
         <is>
-          <t>[35.5]</t>
+          <t>[93.59]</t>
         </is>
       </c>
       <c r="G1651" t="n">
-        <v>35.5</v>
+        <v>93.59</v>
       </c>
       <c r="H1651" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1652">
@@ -50020,14 +50020,14 @@
       </c>
       <c r="F1653" t="inlineStr">
         <is>
-          <t>[68.104]</t>
+          <t>[52.54]</t>
         </is>
       </c>
       <c r="G1653" t="n">
-        <v>68.104</v>
+        <v>52.54</v>
       </c>
       <c r="H1653" t="n">
-        <v>68.104</v>
+        <v>62.32222222222222</v>
       </c>
     </row>
     <row r="1654">
@@ -50050,14 +50050,14 @@
       </c>
       <c r="F1654" t="inlineStr">
         <is>
-          <t>[47.06666666666666]</t>
+          <t>[53.85]</t>
         </is>
       </c>
       <c r="G1654" t="n">
-        <v>47.06666666666666</v>
+        <v>53.85</v>
       </c>
       <c r="H1654" t="n">
-        <v>68.104</v>
+        <v>62.32222222222222</v>
       </c>
     </row>
     <row r="1655">
@@ -50080,14 +50080,14 @@
       </c>
       <c r="F1655" t="inlineStr">
         <is>
-          <t>[67.04]</t>
+          <t>[4.39]</t>
         </is>
       </c>
       <c r="G1655" t="n">
-        <v>67.04000000000001</v>
+        <v>4.39</v>
       </c>
       <c r="H1655" t="n">
-        <v>68.104</v>
+        <v>62.32222222222222</v>
       </c>
     </row>
     <row r="1656">
@@ -50110,14 +50110,14 @@
       </c>
       <c r="F1656" t="inlineStr">
         <is>
-          <t>[61.0]</t>
+          <t>[77.29]</t>
         </is>
       </c>
       <c r="G1656" t="n">
-        <v>61</v>
+        <v>77.29000000000001</v>
       </c>
       <c r="H1656" t="n">
-        <v>68.104</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1657">
@@ -50140,14 +50140,14 @@
       </c>
       <c r="F1657" t="inlineStr">
         <is>
-          <t>[53.85]</t>
+          <t>[42.0]</t>
         </is>
       </c>
       <c r="G1657" t="n">
-        <v>53.85</v>
+        <v>42</v>
       </c>
       <c r="H1657" t="n">
-        <v>68.104</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1658">
@@ -50170,11 +50170,11 @@
       </c>
       <c r="F1658" t="inlineStr">
         <is>
-          <t>[77.29]</t>
+          <t>[35.0]</t>
         </is>
       </c>
       <c r="G1658" t="n">
-        <v>77.29000000000001</v>
+        <v>35</v>
       </c>
       <c r="H1658" t="n">
         <v>77.29000000000001</v>
@@ -50200,11 +50200,11 @@
       </c>
       <c r="F1659" t="inlineStr">
         <is>
-          <t>[77.22]</t>
+          <t>[68.104]</t>
         </is>
       </c>
       <c r="G1659" t="n">
-        <v>77.22</v>
+        <v>68.104</v>
       </c>
       <c r="H1659" t="n">
         <v>77.29000000000001</v>
@@ -50230,11 +50230,11 @@
       </c>
       <c r="F1660" t="inlineStr">
         <is>
-          <t>[52.54]</t>
+          <t>[43.34999999999999]</t>
         </is>
       </c>
       <c r="G1660" t="n">
-        <v>52.54</v>
+        <v>43.34999999999999</v>
       </c>
       <c r="H1660" t="n">
         <v>77.29000000000001</v>
@@ -50260,11 +50260,11 @@
       </c>
       <c r="F1661" t="inlineStr">
         <is>
-          <t>[41.35]</t>
+          <t>[21.45]</t>
         </is>
       </c>
       <c r="G1661" t="n">
-        <v>41.35</v>
+        <v>21.45</v>
       </c>
       <c r="H1661" t="n">
         <v>77.29000000000001</v>
@@ -50290,11 +50290,11 @@
       </c>
       <c r="F1662" t="inlineStr">
         <is>
-          <t>[35.5]</t>
+          <t>[70.6]</t>
         </is>
       </c>
       <c r="G1662" t="n">
-        <v>35.5</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="H1662" t="n">
         <v>77.29000000000001</v>
@@ -50320,11 +50320,11 @@
       </c>
       <c r="F1663" t="inlineStr">
         <is>
-          <t>[14.71666666666667]</t>
+          <t>[33.4]</t>
         </is>
       </c>
       <c r="G1663" t="n">
-        <v>14.71666666666667</v>
+        <v>33.4</v>
       </c>
       <c r="H1663" t="n">
         <v>77.29000000000001</v>
@@ -50350,11 +50350,11 @@
       </c>
       <c r="F1664" t="inlineStr">
         <is>
-          <t>[74.2]</t>
+          <t>[61.0]</t>
         </is>
       </c>
       <c r="G1664" t="n">
-        <v>74.2</v>
+        <v>61</v>
       </c>
       <c r="H1664" t="n">
         <v>77.29000000000001</v>
@@ -50380,14 +50380,14 @@
       </c>
       <c r="F1665" t="inlineStr">
         <is>
-          <t>[80.53]</t>
+          <t>[56.848]</t>
         </is>
       </c>
       <c r="G1665" t="n">
-        <v>80.53</v>
+        <v>56.848</v>
       </c>
       <c r="H1665" t="n">
-        <v>80.53</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1666">
@@ -50410,14 +50410,14 @@
       </c>
       <c r="F1666" t="inlineStr">
         <is>
-          <t>[47.0]</t>
+          <t>[53.37]</t>
         </is>
       </c>
       <c r="G1666" t="n">
-        <v>47</v>
+        <v>53.37</v>
       </c>
       <c r="H1666" t="n">
-        <v>80.53</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1667">
@@ -50440,14 +50440,14 @@
       </c>
       <c r="F1667" t="inlineStr">
         <is>
-          <t>[87.54]</t>
+          <t>[89.99000000000001]</t>
         </is>
       </c>
       <c r="G1667" t="n">
-        <v>87.54000000000001</v>
+        <v>89.99000000000001</v>
       </c>
       <c r="H1667" t="n">
-        <v>87.54000000000001</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1668">
@@ -50470,14 +50470,14 @@
       </c>
       <c r="F1668" t="inlineStr">
         <is>
-          <t>[55.94]</t>
+          <t>[58.45]</t>
         </is>
       </c>
       <c r="G1668" t="n">
-        <v>55.94</v>
+        <v>58.45</v>
       </c>
       <c r="H1668" t="n">
-        <v>87.54000000000001</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1669">
@@ -50500,14 +50500,14 @@
       </c>
       <c r="F1669" t="inlineStr">
         <is>
-          <t>[93.59]</t>
+          <t>[63.16666666666666]</t>
         </is>
       </c>
       <c r="G1669" t="n">
-        <v>93.59</v>
+        <v>63.16666666666666</v>
       </c>
       <c r="H1669" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1670">
@@ -50530,14 +50530,14 @@
       </c>
       <c r="F1670" t="inlineStr">
         <is>
-          <t>[4.39]</t>
+          <t>[74.2]</t>
         </is>
       </c>
       <c r="G1670" t="n">
-        <v>4.39</v>
+        <v>74.2</v>
       </c>
       <c r="H1670" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1671">
@@ -50560,14 +50560,14 @@
       </c>
       <c r="F1671" t="inlineStr">
         <is>
-          <t>[30.87]</t>
+          <t>[66.06]</t>
         </is>
       </c>
       <c r="G1671" t="n">
-        <v>30.87</v>
+        <v>66.06</v>
       </c>
       <c r="H1671" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1672">
@@ -50590,14 +50590,14 @@
       </c>
       <c r="F1672" t="inlineStr">
         <is>
-          <t>[44.11]</t>
+          <t>[55.94]</t>
         </is>
       </c>
       <c r="G1672" t="n">
-        <v>44.11</v>
+        <v>55.94</v>
       </c>
       <c r="H1672" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1673">
@@ -50620,14 +50620,14 @@
       </c>
       <c r="F1673" t="inlineStr">
         <is>
-          <t>[42.0]</t>
+          <t>[61.2]</t>
         </is>
       </c>
       <c r="G1673" t="n">
-        <v>42</v>
+        <v>61.2</v>
       </c>
       <c r="H1673" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1674">
@@ -50650,14 +50650,14 @@
       </c>
       <c r="F1674" t="inlineStr">
         <is>
-          <t>[17.97666666666667]</t>
+          <t>[67.04]</t>
         </is>
       </c>
       <c r="G1674" t="n">
-        <v>17.97666666666667</v>
+        <v>67.04000000000001</v>
       </c>
       <c r="H1674" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1675">
@@ -50680,14 +50680,14 @@
       </c>
       <c r="F1675" t="inlineStr">
         <is>
-          <t>[78.075]</t>
+          <t>[44.11]</t>
         </is>
       </c>
       <c r="G1675" t="n">
-        <v>78.075</v>
+        <v>44.11</v>
       </c>
       <c r="H1675" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1676">
@@ -50710,14 +50710,14 @@
       </c>
       <c r="F1676" t="inlineStr">
         <is>
-          <t>[23.35]</t>
+          <t>[20.036]</t>
         </is>
       </c>
       <c r="G1676" t="n">
-        <v>23.35</v>
+        <v>20.036</v>
       </c>
       <c r="H1676" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1677">
@@ -50740,14 +50740,14 @@
       </c>
       <c r="F1677" t="inlineStr">
         <is>
-          <t>[66.06]</t>
+          <t>[43.962]</t>
         </is>
       </c>
       <c r="G1677" t="n">
-        <v>66.06</v>
+        <v>43.962</v>
       </c>
       <c r="H1677" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1678">
@@ -50770,14 +50770,14 @@
       </c>
       <c r="F1678" t="inlineStr">
         <is>
-          <t>[53.37]</t>
+          <t>[81.36636363636363]</t>
         </is>
       </c>
       <c r="G1678" t="n">
-        <v>53.37</v>
+        <v>81.36636363636363</v>
       </c>
       <c r="H1678" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1679">
@@ -50800,14 +50800,14 @@
       </c>
       <c r="F1679" t="inlineStr">
         <is>
-          <t>[43.34999999999999]</t>
+          <t>[42.66666666666666]</t>
         </is>
       </c>
       <c r="G1679" t="n">
-        <v>43.34999999999999</v>
+        <v>42.66666666666666</v>
       </c>
       <c r="H1679" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1680">
@@ -50830,14 +50830,14 @@
       </c>
       <c r="F1680" t="inlineStr">
         <is>
-          <t>[81.71000000000001]</t>
+          <t>[54.5]</t>
         </is>
       </c>
       <c r="G1680" t="n">
-        <v>81.71000000000001</v>
+        <v>54.5</v>
       </c>
       <c r="H1680" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1681">
@@ -50860,14 +50860,14 @@
       </c>
       <c r="F1681" t="inlineStr">
         <is>
-          <t>[78.0]</t>
+          <t>[67.0]</t>
         </is>
       </c>
       <c r="G1681" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H1681" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1682">
@@ -50890,14 +50890,14 @@
       </c>
       <c r="F1682" t="inlineStr">
         <is>
-          <t>[92.24000000000001]</t>
+          <t>[73.975]</t>
         </is>
       </c>
       <c r="G1682" t="n">
-        <v>92.24000000000001</v>
+        <v>73.97499999999999</v>
       </c>
       <c r="H1682" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1683">
@@ -50920,14 +50920,14 @@
       </c>
       <c r="F1683" t="inlineStr">
         <is>
-          <t>[67.0]</t>
+          <t>[23.35]</t>
         </is>
       </c>
       <c r="G1683" t="n">
-        <v>67</v>
+        <v>23.35</v>
       </c>
       <c r="H1683" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1684">
@@ -50950,14 +50950,14 @@
       </c>
       <c r="F1684" t="inlineStr">
         <is>
-          <t>[58.55]</t>
+          <t>[79.74]</t>
         </is>
       </c>
       <c r="G1684" t="n">
-        <v>58.55</v>
+        <v>79.73999999999999</v>
       </c>
       <c r="H1684" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1685">
@@ -50980,14 +50980,14 @@
       </c>
       <c r="F1685" t="inlineStr">
         <is>
-          <t>[67.4]</t>
+          <t>[86.01]</t>
         </is>
       </c>
       <c r="G1685" t="n">
-        <v>67.40000000000001</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="H1685" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1686">
@@ -51010,14 +51010,14 @@
       </c>
       <c r="F1686" t="inlineStr">
         <is>
-          <t>[86.65]</t>
+          <t>[76.845]</t>
         </is>
       </c>
       <c r="G1686" t="n">
-        <v>86.65000000000001</v>
+        <v>76.845</v>
       </c>
       <c r="H1686" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1687">
@@ -51040,14 +51040,14 @@
       </c>
       <c r="F1687" t="inlineStr">
         <is>
-          <t>[83.43]</t>
+          <t>[29.7]</t>
         </is>
       </c>
       <c r="G1687" t="n">
-        <v>83.43000000000001</v>
+        <v>29.7</v>
       </c>
       <c r="H1687" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1688">
@@ -51070,14 +51070,14 @@
       </c>
       <c r="F1688" t="inlineStr">
         <is>
-          <t>[81.36636363636363]</t>
+          <t>[23.8]</t>
         </is>
       </c>
       <c r="G1688" t="n">
-        <v>81.36636363636363</v>
+        <v>23.8</v>
       </c>
       <c r="H1688" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1689">
@@ -51100,14 +51100,14 @@
       </c>
       <c r="F1689" t="inlineStr">
         <is>
-          <t>[73.9]</t>
+          <t>[93.1]</t>
         </is>
       </c>
       <c r="G1689" t="n">
-        <v>73.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="H1689" t="n">
-        <v>93.59</v>
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="1690">
@@ -51130,14 +51130,14 @@
       </c>
       <c r="F1690" t="inlineStr">
         <is>
-          <t>[70.0]</t>
+          <t>[95.8]</t>
         </is>
       </c>
       <c r="G1690" t="n">
-        <v>70</v>
+        <v>95.8</v>
       </c>
       <c r="H1690" t="n">
-        <v>93.59</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="1691">
@@ -51160,14 +51160,14 @@
       </c>
       <c r="F1691" t="inlineStr">
         <is>
-          <t>[49.8]</t>
+          <t>[96.2]</t>
         </is>
       </c>
       <c r="G1691" t="n">
-        <v>49.8</v>
+        <v>96.2</v>
       </c>
       <c r="H1691" t="n">
-        <v>93.59</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="1692">
@@ -51190,14 +51190,14 @@
       </c>
       <c r="F1692" t="inlineStr">
         <is>
-          <t>[78.0]</t>
+          <t>[83.43]</t>
         </is>
       </c>
       <c r="G1692" t="n">
-        <v>78</v>
+        <v>83.43000000000001</v>
       </c>
       <c r="H1692" t="n">
-        <v>93.59</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="1693">
@@ -51220,14 +51220,14 @@
       </c>
       <c r="F1693" t="inlineStr">
         <is>
-          <t>[93.1]</t>
+          <t>[81.71000000000001]</t>
         </is>
       </c>
       <c r="G1693" t="n">
-        <v>93.09999999999999</v>
+        <v>81.71000000000001</v>
       </c>
       <c r="H1693" t="n">
-        <v>93.59</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="1694">
@@ -51250,14 +51250,14 @@
       </c>
       <c r="F1694" t="inlineStr">
         <is>
-          <t>[95.8]</t>
+          <t>[78.075]</t>
         </is>
       </c>
       <c r="G1694" t="n">
-        <v>95.8</v>
+        <v>78.075</v>
       </c>
       <c r="H1694" t="n">
-        <v>95.8</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="1695">
@@ -51280,14 +51280,14 @@
       </c>
       <c r="F1695" t="inlineStr">
         <is>
-          <t>[20.036]</t>
+          <t>[47.95]</t>
         </is>
       </c>
       <c r="G1695" t="n">
-        <v>20.036</v>
+        <v>47.95</v>
       </c>
       <c r="H1695" t="n">
-        <v>95.8</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="1696">
@@ -51310,11 +51310,11 @@
       </c>
       <c r="F1696" t="inlineStr">
         <is>
-          <t>[96.2]</t>
+          <t>[58.55]</t>
         </is>
       </c>
       <c r="G1696" t="n">
-        <v>96.2</v>
+        <v>58.55</v>
       </c>
       <c r="H1696" t="n">
         <v>96.2</v>
@@ -51340,11 +51340,11 @@
       </c>
       <c r="F1697" t="inlineStr">
         <is>
-          <t>[89.99000000000001]</t>
+          <t>[69.81]</t>
         </is>
       </c>
       <c r="G1697" t="n">
-        <v>89.99000000000001</v>
+        <v>69.81</v>
       </c>
       <c r="H1697" t="n">
         <v>96.2</v>
@@ -51370,11 +51370,11 @@
       </c>
       <c r="F1698" t="inlineStr">
         <is>
-          <t>[47.95]</t>
+          <t>[67.4]</t>
         </is>
       </c>
       <c r="G1698" t="n">
-        <v>47.95</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="H1698" t="n">
         <v>96.2</v>
@@ -51400,11 +51400,11 @@
       </c>
       <c r="F1699" t="inlineStr">
         <is>
-          <t>[86.69285714285715]</t>
+          <t>[86.65]</t>
         </is>
       </c>
       <c r="G1699" t="n">
-        <v>86.69285714285715</v>
+        <v>86.65000000000001</v>
       </c>
       <c r="H1699" t="n">
         <v>96.2</v>
@@ -51430,11 +51430,11 @@
       </c>
       <c r="F1700" t="inlineStr">
         <is>
-          <t>[81.2]</t>
+          <t>[21.05]</t>
         </is>
       </c>
       <c r="G1700" t="n">
-        <v>81.2</v>
+        <v>21.05</v>
       </c>
       <c r="H1700" t="n">
         <v>96.2</v>
@@ -51460,11 +51460,11 @@
       </c>
       <c r="F1701" t="inlineStr">
         <is>
-          <t>[77.985]</t>
+          <t>[39.33]</t>
         </is>
       </c>
       <c r="G1701" t="n">
-        <v>77.985</v>
+        <v>39.33</v>
       </c>
       <c r="H1701" t="n">
         <v>96.2</v>
@@ -51520,14 +51520,14 @@
       </c>
       <c r="F1703" t="inlineStr">
         <is>
-          <t>[83.742]</t>
+          <t>[52.54]</t>
         </is>
       </c>
       <c r="G1703" t="n">
-        <v>83.742</v>
+        <v>52.54</v>
       </c>
       <c r="H1703" t="n">
-        <v>83.742</v>
+        <v>52.54</v>
       </c>
     </row>
     <row r="1704">
@@ -51550,14 +51550,14 @@
       </c>
       <c r="F1704" t="inlineStr">
         <is>
-          <t>[47.06666666666666]</t>
+          <t>[49.8]</t>
         </is>
       </c>
       <c r="G1704" t="n">
-        <v>47.06666666666666</v>
+        <v>49.8</v>
       </c>
       <c r="H1704" t="n">
-        <v>83.742</v>
+        <v>52.54</v>
       </c>
     </row>
     <row r="1705">
@@ -51580,14 +51580,14 @@
       </c>
       <c r="F1705" t="inlineStr">
         <is>
-          <t>[67.04]</t>
+          <t>[47.06666666666666]</t>
         </is>
       </c>
       <c r="G1705" t="n">
-        <v>67.04000000000001</v>
+        <v>47.06666666666666</v>
       </c>
       <c r="H1705" t="n">
-        <v>83.742</v>
+        <v>52.54</v>
       </c>
     </row>
     <row r="1706">
@@ -51610,14 +51610,14 @@
       </c>
       <c r="F1706" t="inlineStr">
         <is>
-          <t>[14.71666666666667]</t>
+          <t>[57.86499999999999]</t>
         </is>
       </c>
       <c r="G1706" t="n">
-        <v>14.71666666666667</v>
+        <v>57.86499999999999</v>
       </c>
       <c r="H1706" t="n">
-        <v>83.742</v>
+        <v>57.86499999999999</v>
       </c>
     </row>
     <row r="1707">
@@ -51640,14 +51640,14 @@
       </c>
       <c r="F1707" t="inlineStr">
         <is>
-          <t>[78.0]</t>
+          <t>[77.29]</t>
         </is>
       </c>
       <c r="G1707" t="n">
-        <v>78</v>
+        <v>77.29000000000001</v>
       </c>
       <c r="H1707" t="n">
-        <v>83.742</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1708">
@@ -51670,14 +51670,14 @@
       </c>
       <c r="F1708" t="inlineStr">
         <is>
-          <t>[52.54]</t>
+          <t>[41.35]</t>
         </is>
       </c>
       <c r="G1708" t="n">
-        <v>52.54</v>
+        <v>41.35</v>
       </c>
       <c r="H1708" t="n">
-        <v>83.742</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1709">
@@ -51700,14 +51700,14 @@
       </c>
       <c r="F1709" t="inlineStr">
         <is>
-          <t>[54.5]</t>
+          <t>[68.104]</t>
         </is>
       </c>
       <c r="G1709" t="n">
-        <v>54.5</v>
+        <v>68.104</v>
       </c>
       <c r="H1709" t="n">
-        <v>83.742</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1710">
@@ -51730,14 +51730,14 @@
       </c>
       <c r="F1710" t="inlineStr">
         <is>
-          <t>[74.2]</t>
+          <t>[43.34999999999999]</t>
         </is>
       </c>
       <c r="G1710" t="n">
-        <v>74.2</v>
+        <v>43.34999999999999</v>
       </c>
       <c r="H1710" t="n">
-        <v>83.742</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1711">
@@ -51760,14 +51760,14 @@
       </c>
       <c r="F1711" t="inlineStr">
         <is>
-          <t>[77.29]</t>
+          <t>[39.33]</t>
         </is>
       </c>
       <c r="G1711" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="H1711" t="n">
         <v>77.29000000000001</v>
-      </c>
-      <c r="H1711" t="n">
-        <v>83.742</v>
       </c>
     </row>
     <row r="1712">
@@ -51790,14 +51790,14 @@
       </c>
       <c r="F1712" t="inlineStr">
         <is>
-          <t>[47.0]</t>
+          <t>[70.9]</t>
         </is>
       </c>
       <c r="G1712" t="n">
-        <v>47</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="H1712" t="n">
-        <v>83.742</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1713">
@@ -51820,14 +51820,14 @@
       </c>
       <c r="F1713" t="inlineStr">
         <is>
-          <t>[63.16666666666666]</t>
+          <t>[81.65]</t>
         </is>
       </c>
       <c r="G1713" t="n">
-        <v>63.16666666666666</v>
+        <v>81.65000000000001</v>
       </c>
       <c r="H1713" t="n">
-        <v>83.742</v>
+        <v>81.65000000000001</v>
       </c>
     </row>
     <row r="1714">
@@ -51850,14 +51850,14 @@
       </c>
       <c r="F1714" t="inlineStr">
         <is>
-          <t>[68.104]</t>
+          <t>[65.8]</t>
         </is>
       </c>
       <c r="G1714" t="n">
-        <v>68.104</v>
+        <v>65.8</v>
       </c>
       <c r="H1714" t="n">
-        <v>83.742</v>
+        <v>81.65000000000001</v>
       </c>
     </row>
     <row r="1715">
@@ -51880,14 +51880,14 @@
       </c>
       <c r="F1715" t="inlineStr">
         <is>
-          <t>[20.036]</t>
+          <t>[85.78999999999999]</t>
         </is>
       </c>
       <c r="G1715" t="n">
-        <v>20.036</v>
+        <v>85.78999999999999</v>
       </c>
       <c r="H1715" t="n">
-        <v>83.742</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1716">
@@ -51910,14 +51910,14 @@
       </c>
       <c r="F1716" t="inlineStr">
         <is>
-          <t>[55.94]</t>
+          <t>[80.244]</t>
         </is>
       </c>
       <c r="G1716" t="n">
-        <v>55.94</v>
+        <v>80.244</v>
       </c>
       <c r="H1716" t="n">
-        <v>83.742</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1717">
@@ -51940,14 +51940,14 @@
       </c>
       <c r="F1717" t="inlineStr">
         <is>
-          <t>[58.45]</t>
+          <t>[42.0]</t>
         </is>
       </c>
       <c r="G1717" t="n">
-        <v>58.45</v>
+        <v>42</v>
       </c>
       <c r="H1717" t="n">
-        <v>83.742</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1718">
@@ -51970,14 +51970,14 @@
       </c>
       <c r="F1718" t="inlineStr">
         <is>
-          <t>[53.85]</t>
+          <t>[72.378]</t>
         </is>
       </c>
       <c r="G1718" t="n">
-        <v>53.85</v>
+        <v>72.378</v>
       </c>
       <c r="H1718" t="n">
-        <v>83.742</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1719">
@@ -52000,14 +52000,14 @@
       </c>
       <c r="F1719" t="inlineStr">
         <is>
-          <t>[41.35]</t>
+          <t>[54.5]</t>
         </is>
       </c>
       <c r="G1719" t="n">
-        <v>41.35</v>
+        <v>54.5</v>
       </c>
       <c r="H1719" t="n">
-        <v>83.742</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1720">
@@ -52030,14 +52030,14 @@
       </c>
       <c r="F1720" t="inlineStr">
         <is>
-          <t>[72.53]</t>
+          <t>[67.0]</t>
         </is>
       </c>
       <c r="G1720" t="n">
-        <v>72.53</v>
+        <v>67</v>
       </c>
       <c r="H1720" t="n">
-        <v>83.742</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1721">
@@ -52060,14 +52060,14 @@
       </c>
       <c r="F1721" t="inlineStr">
         <is>
-          <t>[77.985]</t>
+          <t>[73.975]</t>
         </is>
       </c>
       <c r="G1721" t="n">
-        <v>77.985</v>
+        <v>73.97499999999999</v>
       </c>
       <c r="H1721" t="n">
-        <v>83.742</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1722">
@@ -52090,14 +52090,14 @@
       </c>
       <c r="F1722" t="inlineStr">
         <is>
-          <t>[80.53]</t>
+          <t>[79.74]</t>
         </is>
       </c>
       <c r="G1722" t="n">
-        <v>80.53</v>
+        <v>79.73999999999999</v>
       </c>
       <c r="H1722" t="n">
-        <v>83.742</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1723">
@@ -52120,14 +52120,14 @@
       </c>
       <c r="F1723" t="inlineStr">
         <is>
-          <t>[87.54]</t>
+          <t>[90.0]</t>
         </is>
       </c>
       <c r="G1723" t="n">
-        <v>87.54000000000001</v>
+        <v>90</v>
       </c>
       <c r="H1723" t="n">
-        <v>87.54000000000001</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1724">
@@ -52150,14 +52150,14 @@
       </c>
       <c r="F1724" t="inlineStr">
         <is>
-          <t>[93.59]</t>
+          <t>[80.08000000000001]</t>
         </is>
       </c>
       <c r="G1724" t="n">
-        <v>93.59</v>
+        <v>80.08000000000001</v>
       </c>
       <c r="H1724" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1725">
@@ -52180,14 +52180,14 @@
       </c>
       <c r="F1725" t="inlineStr">
         <is>
-          <t>[43.34999999999999]</t>
+          <t>[86.01]</t>
         </is>
       </c>
       <c r="G1725" t="n">
-        <v>43.34999999999999</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="H1725" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1726">
@@ -52210,14 +52210,14 @@
       </c>
       <c r="F1726" t="inlineStr">
         <is>
-          <t>[78.075]</t>
+          <t>[22.0]</t>
         </is>
       </c>
       <c r="G1726" t="n">
-        <v>78.075</v>
+        <v>22</v>
       </c>
       <c r="H1726" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1727">
@@ -52240,14 +52240,14 @@
       </c>
       <c r="F1727" t="inlineStr">
         <is>
-          <t>[81.71000000000001]</t>
+          <t>[35.0]</t>
         </is>
       </c>
       <c r="G1727" t="n">
-        <v>81.71000000000001</v>
+        <v>35</v>
       </c>
       <c r="H1727" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1728">
@@ -52270,14 +52270,14 @@
       </c>
       <c r="F1728" t="inlineStr">
         <is>
-          <t>[17.97666666666667]</t>
+          <t>[42.66666666666666]</t>
         </is>
       </c>
       <c r="G1728" t="n">
-        <v>17.97666666666667</v>
+        <v>42.66666666666666</v>
       </c>
       <c r="H1728" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1729">
@@ -52300,14 +52300,14 @@
       </c>
       <c r="F1729" t="inlineStr">
         <is>
-          <t>[67.0]</t>
+          <t>[88.46666666666665]</t>
         </is>
       </c>
       <c r="G1729" t="n">
-        <v>67</v>
+        <v>88.46666666666665</v>
       </c>
       <c r="H1729" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1730">
@@ -52330,14 +52330,14 @@
       </c>
       <c r="F1730" t="inlineStr">
         <is>
-          <t>[56.848]</t>
+          <t>[82.46333333333332]</t>
         </is>
       </c>
       <c r="G1730" t="n">
-        <v>56.848</v>
+        <v>82.46333333333332</v>
       </c>
       <c r="H1730" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1731">
@@ -52360,14 +52360,14 @@
       </c>
       <c r="F1731" t="inlineStr">
         <is>
-          <t>[23.35]</t>
+          <t>[92.44333333333333]</t>
         </is>
       </c>
       <c r="G1731" t="n">
-        <v>23.35</v>
+        <v>92.44333333333333</v>
       </c>
       <c r="H1731" t="n">
-        <v>93.59</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1732">
@@ -52390,14 +52390,14 @@
       </c>
       <c r="F1732" t="inlineStr">
         <is>
-          <t>[84.0]</t>
+          <t>[88.53000000000002]</t>
         </is>
       </c>
       <c r="G1732" t="n">
-        <v>84</v>
+        <v>88.53000000000002</v>
       </c>
       <c r="H1732" t="n">
-        <v>93.59</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1733">
@@ -52420,14 +52420,14 @@
       </c>
       <c r="F1733" t="inlineStr">
         <is>
-          <t>[84.0]</t>
+          <t>[89.99000000000001]</t>
         </is>
       </c>
       <c r="G1733" t="n">
-        <v>84</v>
+        <v>89.99000000000001</v>
       </c>
       <c r="H1733" t="n">
-        <v>93.59</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1734">
@@ -52450,14 +52450,14 @@
       </c>
       <c r="F1734" t="inlineStr">
         <is>
-          <t>[72.5]</t>
+          <t>[86.69285714285715]</t>
         </is>
       </c>
       <c r="G1734" t="n">
-        <v>72.5</v>
+        <v>86.69285714285715</v>
       </c>
       <c r="H1734" t="n">
-        <v>93.59</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1735">
@@ -52480,14 +52480,14 @@
       </c>
       <c r="F1735" t="inlineStr">
         <is>
-          <t>[42.02]</t>
+          <t>[80.595]</t>
         </is>
       </c>
       <c r="G1735" t="n">
-        <v>42.02</v>
+        <v>80.595</v>
       </c>
       <c r="H1735" t="n">
-        <v>93.59</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1736">
@@ -52510,14 +52510,14 @@
       </c>
       <c r="F1736" t="inlineStr">
         <is>
-          <t>[84.0]</t>
+          <t>[92.24000000000001]</t>
         </is>
       </c>
       <c r="G1736" t="n">
-        <v>84</v>
+        <v>92.24000000000001</v>
       </c>
       <c r="H1736" t="n">
-        <v>93.59</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1737">
@@ -52540,11 +52540,11 @@
       </c>
       <c r="F1737" t="inlineStr">
         <is>
-          <t>[42.0]</t>
+          <t>[93.59]</t>
         </is>
       </c>
       <c r="G1737" t="n">
-        <v>42</v>
+        <v>93.59</v>
       </c>
       <c r="H1737" t="n">
         <v>93.59</v>
@@ -52570,11 +52570,11 @@
       </c>
       <c r="F1738" t="inlineStr">
         <is>
-          <t>[4.39]</t>
+          <t>[87.54]</t>
         </is>
       </c>
       <c r="G1738" t="n">
-        <v>4.39</v>
+        <v>87.54000000000001</v>
       </c>
       <c r="H1738" t="n">
         <v>93.59</v>
@@ -52600,11 +52600,11 @@
       </c>
       <c r="F1739" t="inlineStr">
         <is>
-          <t>[53.37]</t>
+          <t>[85.87666666666667]</t>
         </is>
       </c>
       <c r="G1739" t="n">
-        <v>53.37</v>
+        <v>85.87666666666667</v>
       </c>
       <c r="H1739" t="n">
         <v>93.59</v>
@@ -52630,11 +52630,11 @@
       </c>
       <c r="F1740" t="inlineStr">
         <is>
-          <t>[92.24000000000001]</t>
+          <t>[90.66333333333334]</t>
         </is>
       </c>
       <c r="G1740" t="n">
-        <v>92.24000000000001</v>
+        <v>90.66333333333334</v>
       </c>
       <c r="H1740" t="n">
         <v>93.59</v>
@@ -52660,11 +52660,11 @@
       </c>
       <c r="F1741" t="inlineStr">
         <is>
-          <t>[83.43]</t>
+          <t>[50.22799999999999]</t>
         </is>
       </c>
       <c r="G1741" t="n">
-        <v>83.43000000000001</v>
+        <v>50.22799999999999</v>
       </c>
       <c r="H1741" t="n">
         <v>93.59</v>
@@ -52690,11 +52690,11 @@
       </c>
       <c r="F1742" t="inlineStr">
         <is>
-          <t>[81.36636363636363]</t>
+          <t>[43.962]</t>
         </is>
       </c>
       <c r="G1742" t="n">
-        <v>81.36636363636363</v>
+        <v>43.962</v>
       </c>
       <c r="H1742" t="n">
         <v>93.59</v>
@@ -52720,11 +52720,11 @@
       </c>
       <c r="F1743" t="inlineStr">
         <is>
-          <t>[66.06]</t>
+          <t>[44.876]</t>
         </is>
       </c>
       <c r="G1743" t="n">
-        <v>66.06</v>
+        <v>44.876</v>
       </c>
       <c r="H1743" t="n">
         <v>93.59</v>
@@ -52750,11 +52750,11 @@
       </c>
       <c r="F1744" t="inlineStr">
         <is>
-          <t>[93.1]</t>
+          <t>[81.36636363636363]</t>
         </is>
       </c>
       <c r="G1744" t="n">
-        <v>93.09999999999999</v>
+        <v>81.36636363636363</v>
       </c>
       <c r="H1744" t="n">
         <v>93.59</v>
@@ -52780,14 +52780,14 @@
       </c>
       <c r="F1745" t="inlineStr">
         <is>
-          <t>[95.8]</t>
+          <t>[64.72]</t>
         </is>
       </c>
       <c r="G1745" t="n">
-        <v>95.8</v>
+        <v>64.72</v>
       </c>
       <c r="H1745" t="n">
-        <v>95.8</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1746">
@@ -52810,14 +52810,14 @@
       </c>
       <c r="F1746" t="inlineStr">
         <is>
-          <t>[96.2]</t>
+          <t>[91.06]</t>
         </is>
       </c>
       <c r="G1746" t="n">
-        <v>96.2</v>
+        <v>91.06</v>
       </c>
       <c r="H1746" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1747">
@@ -52840,14 +52840,14 @@
       </c>
       <c r="F1747" t="inlineStr">
         <is>
-          <t>[58.55]</t>
+          <t>[83.38]</t>
         </is>
       </c>
       <c r="G1747" t="n">
-        <v>58.55</v>
+        <v>83.38</v>
       </c>
       <c r="H1747" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1748">
@@ -52870,14 +52870,14 @@
       </c>
       <c r="F1748" t="inlineStr">
         <is>
-          <t>[67.4]</t>
+          <t>[47.95]</t>
         </is>
       </c>
       <c r="G1748" t="n">
-        <v>67.40000000000001</v>
+        <v>47.95</v>
       </c>
       <c r="H1748" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1749">
@@ -52900,14 +52900,14 @@
       </c>
       <c r="F1749" t="inlineStr">
         <is>
-          <t>[86.65]</t>
+          <t>[85.84]</t>
         </is>
       </c>
       <c r="G1749" t="n">
-        <v>86.65000000000001</v>
+        <v>85.84</v>
       </c>
       <c r="H1749" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1750">
@@ -52930,14 +52930,14 @@
       </c>
       <c r="F1750" t="inlineStr">
         <is>
-          <t>[73.9]</t>
+          <t>[82.95333333333333]</t>
         </is>
       </c>
       <c r="G1750" t="n">
-        <v>73.90000000000001</v>
+        <v>82.95333333333333</v>
       </c>
       <c r="H1750" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1751">
@@ -52960,14 +52960,14 @@
       </c>
       <c r="F1751" t="inlineStr">
         <is>
-          <t>[81.2]</t>
+          <t>[80.53]</t>
         </is>
       </c>
       <c r="G1751" t="n">
-        <v>81.2</v>
+        <v>80.53</v>
       </c>
       <c r="H1751" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1752">
@@ -53020,11 +53020,11 @@
       </c>
       <c r="F1753" t="inlineStr">
         <is>
-          <t>[68.104]</t>
+          <t>[52.54]</t>
         </is>
       </c>
       <c r="G1753" t="n">
-        <v>68.104</v>
+        <v>52.54</v>
       </c>
       <c r="H1753" t="n">
         <v>85.39999999999999</v>
@@ -53050,11 +53050,11 @@
       </c>
       <c r="F1754" t="inlineStr">
         <is>
-          <t>[47.06666666666666]</t>
+          <t>[53.85]</t>
         </is>
       </c>
       <c r="G1754" t="n">
-        <v>47.06666666666666</v>
+        <v>53.85</v>
       </c>
       <c r="H1754" t="n">
         <v>85.39999999999999</v>
@@ -53080,11 +53080,11 @@
       </c>
       <c r="F1755" t="inlineStr">
         <is>
-          <t>[65.0]</t>
+          <t>[4.39]</t>
         </is>
       </c>
       <c r="G1755" t="n">
-        <v>65</v>
+        <v>4.39</v>
       </c>
       <c r="H1755" t="n">
         <v>85.39999999999999</v>
@@ -53110,11 +53110,11 @@
       </c>
       <c r="F1756" t="inlineStr">
         <is>
-          <t>[53.85]</t>
+          <t>[77.29]</t>
         </is>
       </c>
       <c r="G1756" t="n">
-        <v>53.85</v>
+        <v>77.29000000000001</v>
       </c>
       <c r="H1756" t="n">
         <v>85.39999999999999</v>
@@ -53140,11 +53140,11 @@
       </c>
       <c r="F1757" t="inlineStr">
         <is>
-          <t>[77.29]</t>
+          <t>[42.0]</t>
         </is>
       </c>
       <c r="G1757" t="n">
-        <v>77.29000000000001</v>
+        <v>42</v>
       </c>
       <c r="H1757" t="n">
         <v>85.39999999999999</v>
@@ -53170,11 +53170,11 @@
       </c>
       <c r="F1758" t="inlineStr">
         <is>
-          <t>[52.54]</t>
+          <t>[22.0]</t>
         </is>
       </c>
       <c r="G1758" t="n">
-        <v>52.54</v>
+        <v>22</v>
       </c>
       <c r="H1758" t="n">
         <v>85.39999999999999</v>
@@ -53200,11 +53200,11 @@
       </c>
       <c r="F1759" t="inlineStr">
         <is>
-          <t>[42.0]</t>
+          <t>[61.0]</t>
         </is>
       </c>
       <c r="G1759" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="H1759" t="n">
         <v>85.39999999999999</v>
@@ -53230,11 +53230,11 @@
       </c>
       <c r="F1760" t="inlineStr">
         <is>
-          <t>[67.04]</t>
+          <t>[43.34999999999999]</t>
         </is>
       </c>
       <c r="G1760" t="n">
-        <v>67.04000000000001</v>
+        <v>43.34999999999999</v>
       </c>
       <c r="H1760" t="n">
         <v>85.39999999999999</v>
@@ -53260,11 +53260,11 @@
       </c>
       <c r="F1761" t="inlineStr">
         <is>
-          <t>[74.2]</t>
+          <t>[68.104]</t>
         </is>
       </c>
       <c r="G1761" t="n">
-        <v>74.2</v>
+        <v>68.104</v>
       </c>
       <c r="H1761" t="n">
         <v>85.39999999999999</v>
@@ -53290,11 +53290,11 @@
       </c>
       <c r="F1762" t="inlineStr">
         <is>
-          <t>[26.815]</t>
+          <t>[21.45]</t>
         </is>
       </c>
       <c r="G1762" t="n">
-        <v>26.815</v>
+        <v>21.45</v>
       </c>
       <c r="H1762" t="n">
         <v>85.39999999999999</v>
@@ -53320,11 +53320,11 @@
       </c>
       <c r="F1763" t="inlineStr">
         <is>
-          <t>[17.97666666666667]</t>
+          <t>[35.0]</t>
         </is>
       </c>
       <c r="G1763" t="n">
-        <v>17.97666666666667</v>
+        <v>35</v>
       </c>
       <c r="H1763" t="n">
         <v>85.39999999999999</v>
@@ -53350,11 +53350,11 @@
       </c>
       <c r="F1764" t="inlineStr">
         <is>
-          <t>[35.5]</t>
+          <t>[33.4]</t>
         </is>
       </c>
       <c r="G1764" t="n">
-        <v>35.5</v>
+        <v>33.4</v>
       </c>
       <c r="H1764" t="n">
         <v>85.39999999999999</v>
@@ -53380,11 +53380,11 @@
       </c>
       <c r="F1765" t="inlineStr">
         <is>
-          <t>[41.35]</t>
+          <t>[56.848]</t>
         </is>
       </c>
       <c r="G1765" t="n">
-        <v>41.35</v>
+        <v>56.848</v>
       </c>
       <c r="H1765" t="n">
         <v>85.39999999999999</v>
@@ -53410,11 +53410,11 @@
       </c>
       <c r="F1766" t="inlineStr">
         <is>
-          <t>[80.53]</t>
+          <t>[53.37]</t>
         </is>
       </c>
       <c r="G1766" t="n">
-        <v>80.53</v>
+        <v>53.37</v>
       </c>
       <c r="H1766" t="n">
         <v>85.39999999999999</v>
@@ -53440,14 +53440,14 @@
       </c>
       <c r="F1767" t="inlineStr">
         <is>
-          <t>[87.54]</t>
+          <t>[70.6]</t>
         </is>
       </c>
       <c r="G1767" t="n">
-        <v>87.54000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="H1767" t="n">
-        <v>87.54000000000001</v>
+        <v>85.39999999999999</v>
       </c>
     </row>
     <row r="1768">
@@ -53470,14 +53470,14 @@
       </c>
       <c r="F1768" t="inlineStr">
         <is>
-          <t>[47.0]</t>
+          <t>[58.45]</t>
         </is>
       </c>
       <c r="G1768" t="n">
-        <v>47</v>
+        <v>58.45</v>
       </c>
       <c r="H1768" t="n">
-        <v>87.54000000000001</v>
+        <v>85.39999999999999</v>
       </c>
     </row>
     <row r="1769">
@@ -53500,14 +53500,14 @@
       </c>
       <c r="F1769" t="inlineStr">
         <is>
-          <t>[93.59]</t>
+          <t>[63.16666666666666]</t>
         </is>
       </c>
       <c r="G1769" t="n">
-        <v>93.59</v>
+        <v>63.16666666666666</v>
       </c>
       <c r="H1769" t="n">
-        <v>93.59</v>
+        <v>85.39999999999999</v>
       </c>
     </row>
     <row r="1770">
@@ -53530,14 +53530,14 @@
       </c>
       <c r="F1770" t="inlineStr">
         <is>
-          <t>[66.06]</t>
+          <t>[55.94]</t>
         </is>
       </c>
       <c r="G1770" t="n">
-        <v>66.06</v>
+        <v>55.94</v>
       </c>
       <c r="H1770" t="n">
-        <v>93.59</v>
+        <v>85.39999999999999</v>
       </c>
     </row>
     <row r="1771">
@@ -53560,14 +53560,14 @@
       </c>
       <c r="F1771" t="inlineStr">
         <is>
-          <t>[78.075]</t>
+          <t>[61.2]</t>
         </is>
       </c>
       <c r="G1771" t="n">
-        <v>78.075</v>
+        <v>61.2</v>
       </c>
       <c r="H1771" t="n">
-        <v>93.59</v>
+        <v>85.39999999999999</v>
       </c>
     </row>
     <row r="1772">
@@ -53590,14 +53590,14 @@
       </c>
       <c r="F1772" t="inlineStr">
         <is>
-          <t>[63.16666666666666]</t>
+          <t>[86.69285714285715]</t>
         </is>
       </c>
       <c r="G1772" t="n">
-        <v>63.16666666666666</v>
+        <v>86.69285714285715</v>
       </c>
       <c r="H1772" t="n">
-        <v>93.59</v>
+        <v>86.69285714285715</v>
       </c>
     </row>
     <row r="1773">
@@ -53620,14 +53620,14 @@
       </c>
       <c r="F1773" t="inlineStr">
         <is>
-          <t>[20.036]</t>
+          <t>[67.04]</t>
         </is>
       </c>
       <c r="G1773" t="n">
-        <v>20.036</v>
+        <v>67.04000000000001</v>
       </c>
       <c r="H1773" t="n">
-        <v>93.59</v>
+        <v>86.69285714285715</v>
       </c>
     </row>
     <row r="1774">
@@ -53650,14 +53650,14 @@
       </c>
       <c r="F1774" t="inlineStr">
         <is>
-          <t>[55.94]</t>
+          <t>[74.2]</t>
         </is>
       </c>
       <c r="G1774" t="n">
-        <v>55.94</v>
+        <v>74.2</v>
       </c>
       <c r="H1774" t="n">
-        <v>93.59</v>
+        <v>86.69285714285715</v>
       </c>
     </row>
     <row r="1775">
@@ -53680,14 +53680,14 @@
       </c>
       <c r="F1775" t="inlineStr">
         <is>
-          <t>[92.24000000000001]</t>
+          <t>[66.06]</t>
         </is>
       </c>
       <c r="G1775" t="n">
-        <v>92.24000000000001</v>
+        <v>66.06</v>
       </c>
       <c r="H1775" t="n">
-        <v>93.59</v>
+        <v>86.69285714285715</v>
       </c>
     </row>
     <row r="1776">
@@ -53710,14 +53710,14 @@
       </c>
       <c r="F1776" t="inlineStr">
         <is>
-          <t>[67.0]</t>
+          <t>[44.11]</t>
         </is>
       </c>
       <c r="G1776" t="n">
-        <v>67</v>
+        <v>44.11</v>
       </c>
       <c r="H1776" t="n">
-        <v>93.59</v>
+        <v>86.69285714285715</v>
       </c>
     </row>
     <row r="1777">
@@ -53740,14 +53740,14 @@
       </c>
       <c r="F1777" t="inlineStr">
         <is>
-          <t>[70.0]</t>
+          <t>[15.484]</t>
         </is>
       </c>
       <c r="G1777" t="n">
-        <v>70</v>
+        <v>15.484</v>
       </c>
       <c r="H1777" t="n">
-        <v>93.59</v>
+        <v>86.69285714285715</v>
       </c>
     </row>
     <row r="1778">
@@ -53770,14 +53770,14 @@
       </c>
       <c r="F1778" t="inlineStr">
         <is>
-          <t>[53.37]</t>
+          <t>[50.22799999999999]</t>
         </is>
       </c>
       <c r="G1778" t="n">
-        <v>53.37</v>
+        <v>50.22799999999999</v>
       </c>
       <c r="H1778" t="n">
-        <v>93.59</v>
+        <v>86.69285714285715</v>
       </c>
     </row>
     <row r="1779">
@@ -53800,14 +53800,14 @@
       </c>
       <c r="F1779" t="inlineStr">
         <is>
-          <t>[14.71666666666667]</t>
+          <t>[81.36636363636363]</t>
         </is>
       </c>
       <c r="G1779" t="n">
-        <v>14.71666666666667</v>
+        <v>81.36636363636363</v>
       </c>
       <c r="H1779" t="n">
-        <v>93.59</v>
+        <v>86.69285714285715</v>
       </c>
     </row>
     <row r="1780">
@@ -53830,14 +53830,14 @@
       </c>
       <c r="F1780" t="inlineStr">
         <is>
-          <t>[81.71000000000001]</t>
+          <t>[42.66666666666666]</t>
         </is>
       </c>
       <c r="G1780" t="n">
-        <v>81.71000000000001</v>
+        <v>42.66666666666666</v>
       </c>
       <c r="H1780" t="n">
-        <v>93.59</v>
+        <v>86.69285714285715</v>
       </c>
     </row>
     <row r="1781">
@@ -53860,14 +53860,14 @@
       </c>
       <c r="F1781" t="inlineStr">
         <is>
-          <t>[23.35]</t>
+          <t>[54.5]</t>
         </is>
       </c>
       <c r="G1781" t="n">
-        <v>23.35</v>
+        <v>54.5</v>
       </c>
       <c r="H1781" t="n">
-        <v>93.59</v>
+        <v>86.69285714285715</v>
       </c>
     </row>
     <row r="1782">
@@ -53890,14 +53890,14 @@
       </c>
       <c r="F1782" t="inlineStr">
         <is>
-          <t>[42.02]</t>
+          <t>[67.0]</t>
         </is>
       </c>
       <c r="G1782" t="n">
-        <v>42.02</v>
+        <v>67</v>
       </c>
       <c r="H1782" t="n">
-        <v>93.59</v>
+        <v>86.69285714285715</v>
       </c>
     </row>
     <row r="1783">
@@ -53920,14 +53920,14 @@
       </c>
       <c r="F1783" t="inlineStr">
         <is>
-          <t>[65.0]</t>
+          <t>[73.975]</t>
         </is>
       </c>
       <c r="G1783" t="n">
-        <v>65</v>
+        <v>73.97499999999999</v>
       </c>
       <c r="H1783" t="n">
-        <v>93.59</v>
+        <v>86.69285714285715</v>
       </c>
     </row>
     <row r="1784">
@@ -53950,14 +53950,14 @@
       </c>
       <c r="F1784" t="inlineStr">
         <is>
-          <t>[83.43]</t>
+          <t>[90.0]</t>
         </is>
       </c>
       <c r="G1784" t="n">
-        <v>83.43000000000001</v>
+        <v>90</v>
       </c>
       <c r="H1784" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1785">
@@ -53980,14 +53980,14 @@
       </c>
       <c r="F1785" t="inlineStr">
         <is>
-          <t>[58.55]</t>
+          <t>[80.08000000000001]</t>
         </is>
       </c>
       <c r="G1785" t="n">
-        <v>58.55</v>
+        <v>80.08000000000001</v>
       </c>
       <c r="H1785" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1786">
@@ -54010,14 +54010,14 @@
       </c>
       <c r="F1786" t="inlineStr">
         <is>
-          <t>[67.4]</t>
+          <t>[79.74]</t>
         </is>
       </c>
       <c r="G1786" t="n">
-        <v>67.40000000000001</v>
+        <v>79.73999999999999</v>
       </c>
       <c r="H1786" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1787">
@@ -54040,14 +54040,14 @@
       </c>
       <c r="F1787" t="inlineStr">
         <is>
-          <t>[86.65]</t>
+          <t>[21.03333333333333]</t>
         </is>
       </c>
       <c r="G1787" t="n">
-        <v>86.65000000000001</v>
+        <v>21.03333333333333</v>
       </c>
       <c r="H1787" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1788">
@@ -54070,14 +54070,14 @@
       </c>
       <c r="F1788" t="inlineStr">
         <is>
-          <t>[81.36636363636363]</t>
+          <t>[68.00666666666666]</t>
         </is>
       </c>
       <c r="G1788" t="n">
-        <v>81.36636363636363</v>
+        <v>68.00666666666666</v>
       </c>
       <c r="H1788" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1789">
@@ -54100,14 +54100,14 @@
       </c>
       <c r="F1789" t="inlineStr">
         <is>
-          <t>[73.9]</t>
+          <t>[47.06666666666666]</t>
         </is>
       </c>
       <c r="G1789" t="n">
-        <v>73.90000000000001</v>
+        <v>47.06666666666666</v>
       </c>
       <c r="H1789" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1790">
@@ -54130,14 +54130,14 @@
       </c>
       <c r="F1790" t="inlineStr">
         <is>
-          <t>[70.0]</t>
+          <t>[83.43]</t>
         </is>
       </c>
       <c r="G1790" t="n">
-        <v>70</v>
+        <v>83.43000000000001</v>
       </c>
       <c r="H1790" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1791">
@@ -54160,14 +54160,14 @@
       </c>
       <c r="F1791" t="inlineStr">
         <is>
-          <t>[93.1]</t>
+          <t>[23.8]</t>
         </is>
       </c>
       <c r="G1791" t="n">
-        <v>93.09999999999999</v>
+        <v>23.8</v>
       </c>
       <c r="H1791" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1792">
@@ -54190,14 +54190,14 @@
       </c>
       <c r="F1792" t="inlineStr">
         <is>
-          <t>[95.8]</t>
+          <t>[93.1]</t>
         </is>
       </c>
       <c r="G1792" t="n">
-        <v>95.8</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="H1792" t="n">
-        <v>95.8</v>
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="1793">
@@ -54220,11 +54220,11 @@
       </c>
       <c r="F1793" t="inlineStr">
         <is>
-          <t>[49.8]</t>
+          <t>[95.8]</t>
         </is>
       </c>
       <c r="G1793" t="n">
-        <v>49.8</v>
+        <v>95.8</v>
       </c>
       <c r="H1793" t="n">
         <v>95.8</v>
@@ -54280,11 +54280,11 @@
       </c>
       <c r="F1795" t="inlineStr">
         <is>
-          <t>[62.66666666666666]</t>
+          <t>[81.71000000000001]</t>
         </is>
       </c>
       <c r="G1795" t="n">
-        <v>62.66666666666666</v>
+        <v>81.71000000000001</v>
       </c>
       <c r="H1795" t="n">
         <v>96.2</v>
@@ -54310,11 +54310,11 @@
       </c>
       <c r="F1796" t="inlineStr">
         <is>
-          <t>[57.0]</t>
+          <t>[78.075]</t>
         </is>
       </c>
       <c r="G1796" t="n">
-        <v>57</v>
+        <v>78.075</v>
       </c>
       <c r="H1796" t="n">
         <v>96.2</v>
@@ -54340,11 +54340,11 @@
       </c>
       <c r="F1797" t="inlineStr">
         <is>
-          <t>[77.985]</t>
+          <t>[69.81]</t>
         </is>
       </c>
       <c r="G1797" t="n">
-        <v>77.985</v>
+        <v>69.81</v>
       </c>
       <c r="H1797" t="n">
         <v>96.2</v>
@@ -54370,11 +54370,11 @@
       </c>
       <c r="F1798" t="inlineStr">
         <is>
-          <t>[49.0]</t>
+          <t>[58.55]</t>
         </is>
       </c>
       <c r="G1798" t="n">
-        <v>49</v>
+        <v>58.55</v>
       </c>
       <c r="H1798" t="n">
         <v>96.2</v>
@@ -54400,11 +54400,11 @@
       </c>
       <c r="F1799" t="inlineStr">
         <is>
-          <t>[42.66666666666666]</t>
+          <t>[67.4]</t>
         </is>
       </c>
       <c r="G1799" t="n">
-        <v>42.66666666666666</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="H1799" t="n">
         <v>96.2</v>
@@ -54430,11 +54430,11 @@
       </c>
       <c r="F1800" t="inlineStr">
         <is>
-          <t>[42.5]</t>
+          <t>[86.65]</t>
         </is>
       </c>
       <c r="G1800" t="n">
-        <v>42.5</v>
+        <v>86.65000000000001</v>
       </c>
       <c r="H1800" t="n">
         <v>96.2</v>
@@ -54460,11 +54460,11 @@
       </c>
       <c r="F1801" t="inlineStr">
         <is>
-          <t>[46.0]</t>
+          <t>[73.9]</t>
         </is>
       </c>
       <c r="G1801" t="n">
-        <v>46</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="H1801" t="n">
         <v>96.2</v>
@@ -54520,14 +54520,14 @@
       </c>
       <c r="F1803" t="inlineStr">
         <is>
-          <t>[68.104]</t>
+          <t>[52.54]</t>
         </is>
       </c>
       <c r="G1803" t="n">
-        <v>68.104</v>
+        <v>52.54</v>
       </c>
       <c r="H1803" t="n">
-        <v>68.104</v>
+        <v>52.54</v>
       </c>
     </row>
     <row r="1804">
@@ -54550,14 +54550,14 @@
       </c>
       <c r="F1804" t="inlineStr">
         <is>
-          <t>[47.06666666666666]</t>
+          <t>[49.8]</t>
         </is>
       </c>
       <c r="G1804" t="n">
-        <v>47.06666666666666</v>
+        <v>49.8</v>
       </c>
       <c r="H1804" t="n">
-        <v>68.104</v>
+        <v>52.54</v>
       </c>
     </row>
     <row r="1805">
@@ -54580,14 +54580,14 @@
       </c>
       <c r="F1805" t="inlineStr">
         <is>
-          <t>[67.04]</t>
+          <t>[47.06666666666666]</t>
         </is>
       </c>
       <c r="G1805" t="n">
-        <v>67.04000000000001</v>
+        <v>47.06666666666666</v>
       </c>
       <c r="H1805" t="n">
-        <v>68.104</v>
+        <v>52.54</v>
       </c>
     </row>
     <row r="1806">
@@ -54610,14 +54610,14 @@
       </c>
       <c r="F1806" t="inlineStr">
         <is>
-          <t>[14.71666666666667]</t>
+          <t>[77.22]</t>
         </is>
       </c>
       <c r="G1806" t="n">
-        <v>14.71666666666667</v>
+        <v>77.22</v>
       </c>
       <c r="H1806" t="n">
-        <v>68.104</v>
+        <v>77.22</v>
       </c>
     </row>
     <row r="1807">
@@ -54640,14 +54640,14 @@
       </c>
       <c r="F1807" t="inlineStr">
         <is>
-          <t>[52.54]</t>
+          <t>[68.104]</t>
         </is>
       </c>
       <c r="G1807" t="n">
-        <v>52.54</v>
+        <v>68.104</v>
       </c>
       <c r="H1807" t="n">
-        <v>68.104</v>
+        <v>77.22</v>
       </c>
     </row>
     <row r="1808">
@@ -54670,14 +54670,14 @@
       </c>
       <c r="F1808" t="inlineStr">
         <is>
-          <t>[78.0]</t>
+          <t>[42.0]</t>
         </is>
       </c>
       <c r="G1808" t="n">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="H1808" t="n">
-        <v>78</v>
+        <v>77.22</v>
       </c>
     </row>
     <row r="1809">
@@ -54700,14 +54700,14 @@
       </c>
       <c r="F1809" t="inlineStr">
         <is>
-          <t>[54.5]</t>
+          <t>[77.29]</t>
         </is>
       </c>
       <c r="G1809" t="n">
-        <v>54.5</v>
+        <v>77.29000000000001</v>
       </c>
       <c r="H1809" t="n">
-        <v>78</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1810">
@@ -54730,14 +54730,14 @@
       </c>
       <c r="F1810" t="inlineStr">
         <is>
-          <t>[74.2]</t>
+          <t>[21.05]</t>
         </is>
       </c>
       <c r="G1810" t="n">
-        <v>74.2</v>
+        <v>21.05</v>
       </c>
       <c r="H1810" t="n">
-        <v>78</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1811">
@@ -54760,14 +54760,14 @@
       </c>
       <c r="F1811" t="inlineStr">
         <is>
-          <t>[41.35]</t>
+          <t>[31.55]</t>
         </is>
       </c>
       <c r="G1811" t="n">
-        <v>41.35</v>
+        <v>31.55</v>
       </c>
       <c r="H1811" t="n">
-        <v>78</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1812">
@@ -54790,14 +54790,14 @@
       </c>
       <c r="F1812" t="inlineStr">
         <is>
-          <t>[47.0]</t>
+          <t>[4.39]</t>
         </is>
       </c>
       <c r="G1812" t="n">
-        <v>47</v>
+        <v>4.39</v>
       </c>
       <c r="H1812" t="n">
-        <v>78</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1813">
@@ -54820,14 +54820,14 @@
       </c>
       <c r="F1813" t="inlineStr">
         <is>
-          <t>[92.24000000000001]</t>
+          <t>[43.34999999999999]</t>
         </is>
       </c>
       <c r="G1813" t="n">
-        <v>92.24000000000001</v>
+        <v>43.34999999999999</v>
       </c>
       <c r="H1813" t="n">
-        <v>92.24000000000001</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1814">
@@ -54850,14 +54850,14 @@
       </c>
       <c r="F1814" t="inlineStr">
         <is>
-          <t>[53.85]</t>
+          <t>[21.45]</t>
         </is>
       </c>
       <c r="G1814" t="n">
-        <v>53.85</v>
+        <v>21.45</v>
       </c>
       <c r="H1814" t="n">
-        <v>92.24000000000001</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1815">
@@ -54880,14 +54880,14 @@
       </c>
       <c r="F1815" t="inlineStr">
         <is>
-          <t>[63.16666666666666]</t>
+          <t>[33.4]</t>
         </is>
       </c>
       <c r="G1815" t="n">
-        <v>63.16666666666666</v>
+        <v>33.4</v>
       </c>
       <c r="H1815" t="n">
-        <v>92.24000000000001</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1816">
@@ -54910,14 +54910,14 @@
       </c>
       <c r="F1816" t="inlineStr">
         <is>
-          <t>[80.53]</t>
+          <t>[56.848]</t>
         </is>
       </c>
       <c r="G1816" t="n">
-        <v>80.53</v>
+        <v>56.848</v>
       </c>
       <c r="H1816" t="n">
-        <v>92.24000000000001</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1817">
@@ -54940,14 +54940,14 @@
       </c>
       <c r="F1817" t="inlineStr">
         <is>
-          <t>[78.075]</t>
+          <t>[14.71666666666667]</t>
         </is>
       </c>
       <c r="G1817" t="n">
-        <v>78.075</v>
+        <v>14.71666666666667</v>
       </c>
       <c r="H1817" t="n">
-        <v>92.24000000000001</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1818">
@@ -54970,14 +54970,14 @@
       </c>
       <c r="F1818" t="inlineStr">
         <is>
-          <t>[44.876]</t>
+          <t>[17.97666666666667]</t>
         </is>
       </c>
       <c r="G1818" t="n">
-        <v>44.876</v>
+        <v>17.97666666666667</v>
       </c>
       <c r="H1818" t="n">
-        <v>92.24000000000001</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1819">
@@ -55000,14 +55000,14 @@
       </c>
       <c r="F1819" t="inlineStr">
         <is>
-          <t>[43.34999999999999]</t>
+          <t>[23.35]</t>
         </is>
       </c>
       <c r="G1819" t="n">
-        <v>43.34999999999999</v>
+        <v>23.35</v>
       </c>
       <c r="H1819" t="n">
-        <v>92.24000000000001</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1820">
@@ -55030,14 +55030,14 @@
       </c>
       <c r="F1820" t="inlineStr">
         <is>
-          <t>[79.74]</t>
+          <t>[39.33]</t>
         </is>
       </c>
       <c r="G1820" t="n">
-        <v>79.73999999999999</v>
+        <v>39.33</v>
       </c>
       <c r="H1820" t="n">
-        <v>92.24000000000001</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1821">
@@ -55060,14 +55060,14 @@
       </c>
       <c r="F1821" t="inlineStr">
         <is>
-          <t>[23.35]</t>
+          <t>[40.31]</t>
         </is>
       </c>
       <c r="G1821" t="n">
-        <v>23.35</v>
+        <v>40.31</v>
       </c>
       <c r="H1821" t="n">
-        <v>92.24000000000001</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1822">
@@ -55090,14 +55090,14 @@
       </c>
       <c r="F1822" t="inlineStr">
         <is>
-          <t>[69.81]</t>
+          <t>[75.44]</t>
         </is>
       </c>
       <c r="G1822" t="n">
-        <v>69.81</v>
+        <v>75.44</v>
       </c>
       <c r="H1822" t="n">
-        <v>92.24000000000001</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1823">
@@ -55120,14 +55120,14 @@
       </c>
       <c r="F1823" t="inlineStr">
         <is>
-          <t>[96.2]</t>
+          <t>[54.5]</t>
         </is>
       </c>
       <c r="G1823" t="n">
-        <v>96.2</v>
+        <v>54.5</v>
       </c>
       <c r="H1823" t="n">
-        <v>96.2</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1824">
@@ -55150,14 +55150,14 @@
       </c>
       <c r="F1824" t="inlineStr">
         <is>
-          <t>[95.8]</t>
+          <t>[67.0]</t>
         </is>
       </c>
       <c r="G1824" t="n">
-        <v>95.8</v>
+        <v>67</v>
       </c>
       <c r="H1824" t="n">
-        <v>96.2</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1825">
@@ -55180,14 +55180,14 @@
       </c>
       <c r="F1825" t="inlineStr">
         <is>
-          <t>[93.1]</t>
+          <t>[86.01]</t>
         </is>
       </c>
       <c r="G1825" t="n">
-        <v>93.09999999999999</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="H1825" t="n">
-        <v>96.2</v>
+        <v>86.01000000000001</v>
       </c>
     </row>
     <row r="1826">
@@ -55210,14 +55210,14 @@
       </c>
       <c r="F1826" t="inlineStr">
         <is>
-          <t>[81.36636363636363]</t>
+          <t>[76.845]</t>
         </is>
       </c>
       <c r="G1826" t="n">
-        <v>81.36636363636363</v>
+        <v>76.845</v>
       </c>
       <c r="H1826" t="n">
-        <v>96.2</v>
+        <v>86.01000000000001</v>
       </c>
     </row>
     <row r="1827">
@@ -55240,14 +55240,14 @@
       </c>
       <c r="F1827" t="inlineStr">
         <is>
-          <t>[83.43]</t>
+          <t>[22.0]</t>
         </is>
       </c>
       <c r="G1827" t="n">
-        <v>83.43000000000001</v>
+        <v>22</v>
       </c>
       <c r="H1827" t="n">
-        <v>96.2</v>
+        <v>86.01000000000001</v>
       </c>
     </row>
     <row r="1828">
@@ -55270,14 +55270,14 @@
       </c>
       <c r="F1828" t="inlineStr">
         <is>
-          <t>[57.86499999999999]</t>
+          <t>[62.76333333333333]</t>
         </is>
       </c>
       <c r="G1828" t="n">
-        <v>57.86499999999999</v>
+        <v>62.76333333333333</v>
       </c>
       <c r="H1828" t="n">
-        <v>96.2</v>
+        <v>86.01000000000001</v>
       </c>
     </row>
     <row r="1829">
@@ -55300,14 +55300,14 @@
       </c>
       <c r="F1829" t="inlineStr">
         <is>
-          <t>[81.71000000000001]</t>
+          <t>[35.0]</t>
         </is>
       </c>
       <c r="G1829" t="n">
-        <v>81.71000000000001</v>
+        <v>35</v>
       </c>
       <c r="H1829" t="n">
-        <v>96.2</v>
+        <v>86.01000000000001</v>
       </c>
     </row>
     <row r="1830">
@@ -55330,14 +55330,14 @@
       </c>
       <c r="F1830" t="inlineStr">
         <is>
-          <t>[58.55]</t>
+          <t>[88.46666666666665]</t>
         </is>
       </c>
       <c r="G1830" t="n">
-        <v>58.55</v>
+        <v>88.46666666666665</v>
       </c>
       <c r="H1830" t="n">
-        <v>96.2</v>
+        <v>88.46666666666665</v>
       </c>
     </row>
     <row r="1831">
@@ -55360,14 +55360,14 @@
       </c>
       <c r="F1831" t="inlineStr">
         <is>
-          <t>[89.99000000000001]</t>
+          <t>[82.46333333333332]</t>
         </is>
       </c>
       <c r="G1831" t="n">
-        <v>89.99000000000001</v>
+        <v>82.46333333333332</v>
       </c>
       <c r="H1831" t="n">
-        <v>96.2</v>
+        <v>88.46666666666665</v>
       </c>
     </row>
     <row r="1832">
@@ -55390,14 +55390,14 @@
       </c>
       <c r="F1832" t="inlineStr">
         <is>
-          <t>[83.38]</t>
+          <t>[72.01333333333334]</t>
         </is>
       </c>
       <c r="G1832" t="n">
-        <v>83.38</v>
+        <v>72.01333333333334</v>
       </c>
       <c r="H1832" t="n">
-        <v>96.2</v>
+        <v>88.46666666666665</v>
       </c>
     </row>
     <row r="1833">
@@ -55420,14 +55420,14 @@
       </c>
       <c r="F1833" t="inlineStr">
         <is>
-          <t>[88.46666666666665]</t>
+          <t>[66.17666666666666]</t>
         </is>
       </c>
       <c r="G1833" t="n">
+        <v>66.17666666666666</v>
+      </c>
+      <c r="H1833" t="n">
         <v>88.46666666666665</v>
-      </c>
-      <c r="H1833" t="n">
-        <v>96.2</v>
       </c>
     </row>
     <row r="1834">
@@ -55450,14 +55450,14 @@
       </c>
       <c r="F1834" t="inlineStr">
         <is>
-          <t>[82.46333333333332]</t>
+          <t>[89.99000000000001]</t>
         </is>
       </c>
       <c r="G1834" t="n">
-        <v>82.46333333333332</v>
+        <v>89.99000000000001</v>
       </c>
       <c r="H1834" t="n">
-        <v>96.2</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1835">
@@ -55480,14 +55480,14 @@
       </c>
       <c r="F1835" t="inlineStr">
         <is>
-          <t>[77.01333333333334]</t>
+          <t>[83.38]</t>
         </is>
       </c>
       <c r="G1835" t="n">
-        <v>77.01333333333334</v>
+        <v>83.38</v>
       </c>
       <c r="H1835" t="n">
-        <v>96.2</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1836">
@@ -55510,14 +55510,14 @@
       </c>
       <c r="F1836" t="inlineStr">
         <is>
-          <t>[61.2]</t>
+          <t>[77.01333333333334]</t>
         </is>
       </c>
       <c r="G1836" t="n">
-        <v>61.2</v>
+        <v>77.01333333333334</v>
       </c>
       <c r="H1836" t="n">
-        <v>96.2</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1837">
@@ -55540,14 +55540,14 @@
       </c>
       <c r="F1837" t="inlineStr">
         <is>
-          <t>[67.4]</t>
+          <t>[72.22333333333334]</t>
         </is>
       </c>
       <c r="G1837" t="n">
-        <v>67.40000000000001</v>
+        <v>72.22333333333334</v>
       </c>
       <c r="H1837" t="n">
-        <v>96.2</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1838">
@@ -55570,14 +55570,14 @@
       </c>
       <c r="F1838" t="inlineStr">
         <is>
-          <t>[86.65]</t>
+          <t>[92.44333333333333]</t>
         </is>
       </c>
       <c r="G1838" t="n">
-        <v>86.65000000000001</v>
+        <v>92.44333333333333</v>
       </c>
       <c r="H1838" t="n">
-        <v>96.2</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1839">
@@ -55600,14 +55600,14 @@
       </c>
       <c r="F1839" t="inlineStr">
         <is>
-          <t>[67.0]</t>
+          <t>[88.53000000000002]</t>
         </is>
       </c>
       <c r="G1839" t="n">
-        <v>67</v>
+        <v>88.53000000000002</v>
       </c>
       <c r="H1839" t="n">
-        <v>96.2</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1840">
@@ -55630,14 +55630,14 @@
       </c>
       <c r="F1840" t="inlineStr">
         <is>
-          <t>[73.9]</t>
+          <t>[82.95333333333333]</t>
         </is>
       </c>
       <c r="G1840" t="n">
-        <v>73.90000000000001</v>
+        <v>82.95333333333333</v>
       </c>
       <c r="H1840" t="n">
-        <v>96.2</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1841">
@@ -55660,14 +55660,14 @@
       </c>
       <c r="F1841" t="inlineStr">
         <is>
-          <t>[70.0]</t>
+          <t>[78.34666666666668]</t>
         </is>
       </c>
       <c r="G1841" t="n">
-        <v>70</v>
+        <v>78.34666666666668</v>
       </c>
       <c r="H1841" t="n">
-        <v>96.2</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1842">
@@ -55690,14 +55690,14 @@
       </c>
       <c r="F1842" t="inlineStr">
         <is>
-          <t>[42.0]</t>
+          <t>[72.55666666666666]</t>
         </is>
       </c>
       <c r="G1842" t="n">
-        <v>42</v>
+        <v>72.55666666666666</v>
       </c>
       <c r="H1842" t="n">
-        <v>96.2</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1843">
@@ -55720,14 +55720,14 @@
       </c>
       <c r="F1843" t="inlineStr">
         <is>
-          <t>[53.37]</t>
+          <t>[86.69285714285715]</t>
         </is>
       </c>
       <c r="G1843" t="n">
-        <v>53.37</v>
+        <v>86.69285714285715</v>
       </c>
       <c r="H1843" t="n">
-        <v>96.2</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1844">
@@ -55750,14 +55750,14 @@
       </c>
       <c r="F1844" t="inlineStr">
         <is>
-          <t>[87.54]</t>
+          <t>[81.2]</t>
         </is>
       </c>
       <c r="G1844" t="n">
-        <v>87.54000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="H1844" t="n">
-        <v>96.2</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1845">
@@ -55780,14 +55780,14 @@
       </c>
       <c r="F1845" t="inlineStr">
         <is>
-          <t>[93.59]</t>
+          <t>[77.985]</t>
         </is>
       </c>
       <c r="G1845" t="n">
-        <v>93.59</v>
+        <v>77.985</v>
       </c>
       <c r="H1845" t="n">
-        <v>96.2</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1846">
@@ -55810,14 +55810,14 @@
       </c>
       <c r="F1846" t="inlineStr">
         <is>
-          <t>[77.985]</t>
+          <t>[92.24000000000001]</t>
         </is>
       </c>
       <c r="G1846" t="n">
-        <v>77.985</v>
+        <v>92.24000000000001</v>
       </c>
       <c r="H1846" t="n">
-        <v>96.2</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1847">
@@ -55840,14 +55840,14 @@
       </c>
       <c r="F1847" t="inlineStr">
         <is>
-          <t>[49.8]</t>
+          <t>[93.59]</t>
         </is>
       </c>
       <c r="G1847" t="n">
-        <v>49.8</v>
+        <v>93.59</v>
       </c>
       <c r="H1847" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1848">
@@ -55870,14 +55870,14 @@
       </c>
       <c r="F1848" t="inlineStr">
         <is>
-          <t>[62.66666666666666]</t>
+          <t>[87.54]</t>
         </is>
       </c>
       <c r="G1848" t="n">
-        <v>62.66666666666666</v>
+        <v>87.54000000000001</v>
       </c>
       <c r="H1848" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1849">
@@ -55900,14 +55900,14 @@
       </c>
       <c r="F1849" t="inlineStr">
         <is>
-          <t>[57.0]</t>
+          <t>[80.53]</t>
         </is>
       </c>
       <c r="G1849" t="n">
-        <v>57</v>
+        <v>80.53</v>
       </c>
       <c r="H1849" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1850">
@@ -55930,14 +55930,14 @@
       </c>
       <c r="F1850" t="inlineStr">
         <is>
-          <t>[49.0]</t>
+          <t>[74.2]</t>
         </is>
       </c>
       <c r="G1850" t="n">
-        <v>49</v>
+        <v>74.2</v>
       </c>
       <c r="H1850" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1851">
@@ -55960,14 +55960,14 @@
       </c>
       <c r="F1851" t="inlineStr">
         <is>
-          <t>[55.94]</t>
+          <t>[90.66333333333334]</t>
         </is>
       </c>
       <c r="G1851" t="n">
-        <v>55.94</v>
+        <v>90.66333333333334</v>
       </c>
       <c r="H1851" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1852">
@@ -56020,11 +56020,11 @@
       </c>
       <c r="F1853" t="inlineStr">
         <is>
-          <t>[47.06666666666666]</t>
+          <t>[52.54]</t>
         </is>
       </c>
       <c r="G1853" t="n">
-        <v>47.06666666666666</v>
+        <v>52.54</v>
       </c>
       <c r="H1853" t="n">
         <v>79.73999999999999</v>
@@ -56050,11 +56050,11 @@
       </c>
       <c r="F1854" t="inlineStr">
         <is>
-          <t>[68.104]</t>
+          <t>[53.85]</t>
         </is>
       </c>
       <c r="G1854" t="n">
-        <v>68.104</v>
+        <v>53.85</v>
       </c>
       <c r="H1854" t="n">
         <v>79.73999999999999</v>
@@ -56080,11 +56080,11 @@
       </c>
       <c r="F1855" t="inlineStr">
         <is>
-          <t>[65.0]</t>
+          <t>[4.39]</t>
         </is>
       </c>
       <c r="G1855" t="n">
-        <v>65</v>
+        <v>4.39</v>
       </c>
       <c r="H1855" t="n">
         <v>79.73999999999999</v>
@@ -56110,11 +56110,11 @@
       </c>
       <c r="F1856" t="inlineStr">
         <is>
-          <t>[53.85]</t>
+          <t>[77.29]</t>
         </is>
       </c>
       <c r="G1856" t="n">
-        <v>53.85</v>
+        <v>77.29000000000001</v>
       </c>
       <c r="H1856" t="n">
         <v>79.73999999999999</v>
@@ -56140,11 +56140,11 @@
       </c>
       <c r="F1857" t="inlineStr">
         <is>
-          <t>[67.04]</t>
+          <t>[42.0]</t>
         </is>
       </c>
       <c r="G1857" t="n">
-        <v>67.04000000000001</v>
+        <v>42</v>
       </c>
       <c r="H1857" t="n">
         <v>79.73999999999999</v>
@@ -56170,11 +56170,11 @@
       </c>
       <c r="F1858" t="inlineStr">
         <is>
-          <t>[14.71666666666667]</t>
+          <t>[22.0]</t>
         </is>
       </c>
       <c r="G1858" t="n">
-        <v>14.71666666666667</v>
+        <v>22</v>
       </c>
       <c r="H1858" t="n">
         <v>79.73999999999999</v>
@@ -56200,11 +56200,11 @@
       </c>
       <c r="F1859" t="inlineStr">
         <is>
-          <t>[52.54]</t>
+          <t>[68.104]</t>
         </is>
       </c>
       <c r="G1859" t="n">
-        <v>52.54</v>
+        <v>68.104</v>
       </c>
       <c r="H1859" t="n">
         <v>79.73999999999999</v>
@@ -56230,11 +56230,11 @@
       </c>
       <c r="F1860" t="inlineStr">
         <is>
-          <t>[35.5]</t>
+          <t>[35.0]</t>
         </is>
       </c>
       <c r="G1860" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="H1860" t="n">
         <v>79.73999999999999</v>
@@ -56260,11 +56260,11 @@
       </c>
       <c r="F1861" t="inlineStr">
         <is>
-          <t>[74.2]</t>
+          <t>[43.34999999999999]</t>
         </is>
       </c>
       <c r="G1861" t="n">
-        <v>74.2</v>
+        <v>43.34999999999999</v>
       </c>
       <c r="H1861" t="n">
         <v>79.73999999999999</v>
@@ -56290,11 +56290,11 @@
       </c>
       <c r="F1862" t="inlineStr">
         <is>
-          <t>[17.97666666666667]</t>
+          <t>[21.45]</t>
         </is>
       </c>
       <c r="G1862" t="n">
-        <v>17.97666666666667</v>
+        <v>21.45</v>
       </c>
       <c r="H1862" t="n">
         <v>79.73999999999999</v>
@@ -56320,11 +56320,11 @@
       </c>
       <c r="F1863" t="inlineStr">
         <is>
-          <t>[77.29]</t>
+          <t>[17.97666666666667]</t>
         </is>
       </c>
       <c r="G1863" t="n">
-        <v>77.29000000000001</v>
+        <v>17.97666666666667</v>
       </c>
       <c r="H1863" t="n">
         <v>79.73999999999999</v>
@@ -56350,11 +56350,11 @@
       </c>
       <c r="F1864" t="inlineStr">
         <is>
-          <t>[41.35]</t>
+          <t>[70.6]</t>
         </is>
       </c>
       <c r="G1864" t="n">
-        <v>41.35</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="H1864" t="n">
         <v>79.73999999999999</v>
@@ -56380,11 +56380,11 @@
       </c>
       <c r="F1865" t="inlineStr">
         <is>
-          <t>[72.53]</t>
+          <t>[33.4]</t>
         </is>
       </c>
       <c r="G1865" t="n">
-        <v>72.53</v>
+        <v>33.4</v>
       </c>
       <c r="H1865" t="n">
         <v>79.73999999999999</v>
@@ -56410,11 +56410,11 @@
       </c>
       <c r="F1866" t="inlineStr">
         <is>
-          <t>[47.0]</t>
+          <t>[39.33]</t>
         </is>
       </c>
       <c r="G1866" t="n">
-        <v>47</v>
+        <v>39.33</v>
       </c>
       <c r="H1866" t="n">
         <v>79.73999999999999</v>
@@ -56440,11 +56440,11 @@
       </c>
       <c r="F1867" t="inlineStr">
         <is>
-          <t>[77.985]</t>
+          <t>[21.05]</t>
         </is>
       </c>
       <c r="G1867" t="n">
-        <v>77.985</v>
+        <v>21.05</v>
       </c>
       <c r="H1867" t="n">
         <v>79.73999999999999</v>
@@ -56470,14 +56470,14 @@
       </c>
       <c r="F1868" t="inlineStr">
         <is>
-          <t>[81.2]</t>
+          <t>[47.06666666666666]</t>
         </is>
       </c>
       <c r="G1868" t="n">
-        <v>81.2</v>
+        <v>47.06666666666666</v>
       </c>
       <c r="H1868" t="n">
-        <v>81.2</v>
+        <v>79.73999999999999</v>
       </c>
     </row>
     <row r="1869">
@@ -56500,14 +56500,14 @@
       </c>
       <c r="F1869" t="inlineStr">
         <is>
-          <t>[86.69285714285715]</t>
+          <t>[85.78999999999999]</t>
         </is>
       </c>
       <c r="G1869" t="n">
-        <v>86.69285714285715</v>
+        <v>85.78999999999999</v>
       </c>
       <c r="H1869" t="n">
-        <v>86.69285714285715</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1870">
@@ -56530,14 +56530,14 @@
       </c>
       <c r="F1870" t="inlineStr">
         <is>
-          <t>[55.94]</t>
+          <t>[80.244]</t>
         </is>
       </c>
       <c r="G1870" t="n">
-        <v>55.94</v>
+        <v>80.244</v>
       </c>
       <c r="H1870" t="n">
-        <v>86.69285714285715</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1871">
@@ -56560,14 +56560,14 @@
       </c>
       <c r="F1871" t="inlineStr">
         <is>
-          <t>[80.53]</t>
+          <t>[72.378]</t>
         </is>
       </c>
       <c r="G1871" t="n">
-        <v>80.53</v>
+        <v>72.378</v>
       </c>
       <c r="H1871" t="n">
-        <v>86.69285714285715</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1872">
@@ -56590,14 +56590,14 @@
       </c>
       <c r="F1872" t="inlineStr">
         <is>
-          <t>[87.54]</t>
+          <t>[65.44800000000001]</t>
         </is>
       </c>
       <c r="G1872" t="n">
-        <v>87.54000000000001</v>
+        <v>65.44800000000001</v>
       </c>
       <c r="H1872" t="n">
-        <v>87.54000000000001</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1873">
@@ -56620,14 +56620,14 @@
       </c>
       <c r="F1873" t="inlineStr">
         <is>
-          <t>[93.59]</t>
+          <t>[54.5]</t>
         </is>
       </c>
       <c r="G1873" t="n">
-        <v>93.59</v>
+        <v>54.5</v>
       </c>
       <c r="H1873" t="n">
-        <v>93.59</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1874">
@@ -56650,14 +56650,14 @@
       </c>
       <c r="F1874" t="inlineStr">
         <is>
-          <t>[92.24000000000001]</t>
+          <t>[67.0]</t>
         </is>
       </c>
       <c r="G1874" t="n">
-        <v>92.24000000000001</v>
+        <v>67</v>
       </c>
       <c r="H1874" t="n">
-        <v>93.59</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1875">
@@ -56680,14 +56680,14 @@
       </c>
       <c r="F1875" t="inlineStr">
         <is>
-          <t>[4.39]</t>
+          <t>[61.0]</t>
         </is>
       </c>
       <c r="G1875" t="n">
-        <v>4.39</v>
+        <v>61</v>
       </c>
       <c r="H1875" t="n">
-        <v>93.59</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1876">
@@ -56710,14 +56710,14 @@
       </c>
       <c r="F1876" t="inlineStr">
         <is>
-          <t>[63.16666666666666]</t>
+          <t>[73.975]</t>
         </is>
       </c>
       <c r="G1876" t="n">
-        <v>63.16666666666666</v>
+        <v>73.97499999999999</v>
       </c>
       <c r="H1876" t="n">
-        <v>93.59</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1877">
@@ -56740,14 +56740,14 @@
       </c>
       <c r="F1877" t="inlineStr">
         <is>
-          <t>[66.06]</t>
+          <t>[90.0]</t>
         </is>
       </c>
       <c r="G1877" t="n">
-        <v>66.06</v>
+        <v>90</v>
       </c>
       <c r="H1877" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1878">
@@ -56770,14 +56770,14 @@
       </c>
       <c r="F1878" t="inlineStr">
         <is>
-          <t>[20.036]</t>
+          <t>[80.08000000000001]</t>
         </is>
       </c>
       <c r="G1878" t="n">
-        <v>20.036</v>
+        <v>80.08000000000001</v>
       </c>
       <c r="H1878" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1879">
@@ -56800,14 +56800,14 @@
       </c>
       <c r="F1879" t="inlineStr">
         <is>
-          <t>[78.075]</t>
+          <t>[68.00666666666666]</t>
         </is>
       </c>
       <c r="G1879" t="n">
-        <v>78.075</v>
+        <v>68.00666666666666</v>
       </c>
       <c r="H1879" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1880">
@@ -56830,14 +56830,14 @@
       </c>
       <c r="F1880" t="inlineStr">
         <is>
-          <t>[81.71000000000001]</t>
+          <t>[86.01]</t>
         </is>
       </c>
       <c r="G1880" t="n">
-        <v>81.71000000000001</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="H1880" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1881">
@@ -56860,14 +56860,14 @@
       </c>
       <c r="F1881" t="inlineStr">
         <is>
-          <t>[53.37]</t>
+          <t>[76.845]</t>
         </is>
       </c>
       <c r="G1881" t="n">
-        <v>53.37</v>
+        <v>76.845</v>
       </c>
       <c r="H1881" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1882">
@@ -56890,14 +56890,14 @@
       </c>
       <c r="F1882" t="inlineStr">
         <is>
-          <t>[83.43]</t>
+          <t>[88.46666666666665]</t>
         </is>
       </c>
       <c r="G1882" t="n">
-        <v>83.43000000000001</v>
+        <v>88.46666666666665</v>
       </c>
       <c r="H1882" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1883">
@@ -56920,14 +56920,14 @@
       </c>
       <c r="F1883" t="inlineStr">
         <is>
-          <t>[81.36636363636363]</t>
+          <t>[82.46333333333332]</t>
         </is>
       </c>
       <c r="G1883" t="n">
-        <v>81.36636363636363</v>
+        <v>82.46333333333332</v>
       </c>
       <c r="H1883" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1884">
@@ -56950,14 +56950,14 @@
       </c>
       <c r="F1884" t="inlineStr">
         <is>
-          <t>[42.0]</t>
+          <t>[92.44333333333333]</t>
         </is>
       </c>
       <c r="G1884" t="n">
-        <v>42</v>
+        <v>92.44333333333333</v>
       </c>
       <c r="H1884" t="n">
-        <v>93.59</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1885">
@@ -56980,14 +56980,14 @@
       </c>
       <c r="F1885" t="inlineStr">
         <is>
-          <t>[43.34999999999999]</t>
+          <t>[88.53000000000002]</t>
         </is>
       </c>
       <c r="G1885" t="n">
-        <v>43.34999999999999</v>
+        <v>88.53000000000002</v>
       </c>
       <c r="H1885" t="n">
-        <v>93.59</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1886">
@@ -57010,14 +57010,14 @@
       </c>
       <c r="F1886" t="inlineStr">
         <is>
-          <t>[93.1]</t>
+          <t>[82.95333333333333]</t>
         </is>
       </c>
       <c r="G1886" t="n">
-        <v>93.09999999999999</v>
+        <v>82.95333333333333</v>
       </c>
       <c r="H1886" t="n">
-        <v>93.59</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1887">
@@ -57040,14 +57040,14 @@
       </c>
       <c r="F1887" t="inlineStr">
         <is>
-          <t>[95.8]</t>
+          <t>[89.99000000000001]</t>
         </is>
       </c>
       <c r="G1887" t="n">
-        <v>95.8</v>
+        <v>89.99000000000001</v>
       </c>
       <c r="H1887" t="n">
-        <v>95.8</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1888">
@@ -57070,14 +57070,14 @@
       </c>
       <c r="F1888" t="inlineStr">
         <is>
-          <t>[96.2]</t>
+          <t>[86.69285714285715]</t>
         </is>
       </c>
       <c r="G1888" t="n">
-        <v>96.2</v>
+        <v>86.69285714285715</v>
       </c>
       <c r="H1888" t="n">
-        <v>96.2</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1889">
@@ -57100,14 +57100,14 @@
       </c>
       <c r="F1889" t="inlineStr">
         <is>
-          <t>[65.0]</t>
+          <t>[80.595]</t>
         </is>
       </c>
       <c r="G1889" t="n">
-        <v>65</v>
+        <v>80.595</v>
       </c>
       <c r="H1889" t="n">
-        <v>96.2</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1890">
@@ -57130,14 +57130,14 @@
       </c>
       <c r="F1890" t="inlineStr">
         <is>
-          <t>[67.0]</t>
+          <t>[90.66333333333334]</t>
         </is>
       </c>
       <c r="G1890" t="n">
-        <v>67</v>
+        <v>90.66333333333334</v>
       </c>
       <c r="H1890" t="n">
-        <v>96.2</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1891">
@@ -57160,14 +57160,14 @@
       </c>
       <c r="F1891" t="inlineStr">
         <is>
-          <t>[22.0]</t>
+          <t>[85.87666666666667]</t>
         </is>
       </c>
       <c r="G1891" t="n">
-        <v>22</v>
+        <v>85.87666666666667</v>
       </c>
       <c r="H1891" t="n">
-        <v>96.2</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1892">
@@ -57190,14 +57190,14 @@
       </c>
       <c r="F1892" t="inlineStr">
         <is>
-          <t>[44.11]</t>
+          <t>[91.06]</t>
         </is>
       </c>
       <c r="G1892" t="n">
-        <v>44.11</v>
+        <v>91.06</v>
       </c>
       <c r="H1892" t="n">
-        <v>96.2</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1893">
@@ -57220,14 +57220,14 @@
       </c>
       <c r="F1893" t="inlineStr">
         <is>
-          <t>[58.55]</t>
+          <t>[92.24000000000001]</t>
         </is>
       </c>
       <c r="G1893" t="n">
-        <v>58.55</v>
+        <v>92.24000000000001</v>
       </c>
       <c r="H1893" t="n">
-        <v>96.2</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1894">
@@ -57250,14 +57250,14 @@
       </c>
       <c r="F1894" t="inlineStr">
         <is>
-          <t>[67.4]</t>
+          <t>[93.59]</t>
         </is>
       </c>
       <c r="G1894" t="n">
-        <v>67.40000000000001</v>
+        <v>93.59</v>
       </c>
       <c r="H1894" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1895">
@@ -57280,14 +57280,14 @@
       </c>
       <c r="F1895" t="inlineStr">
         <is>
-          <t>[86.65]</t>
+          <t>[87.54]</t>
         </is>
       </c>
       <c r="G1895" t="n">
-        <v>86.65000000000001</v>
+        <v>87.54000000000001</v>
       </c>
       <c r="H1895" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1896">
@@ -57310,14 +57310,14 @@
       </c>
       <c r="F1896" t="inlineStr">
         <is>
-          <t>[73.9]</t>
+          <t>[50.22799999999999]</t>
         </is>
       </c>
       <c r="G1896" t="n">
-        <v>73.90000000000001</v>
+        <v>50.22799999999999</v>
       </c>
       <c r="H1896" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1897">
@@ -57340,14 +57340,14 @@
       </c>
       <c r="F1897" t="inlineStr">
         <is>
-          <t>[23.35]</t>
+          <t>[43.962]</t>
         </is>
       </c>
       <c r="G1897" t="n">
-        <v>23.35</v>
+        <v>43.962</v>
       </c>
       <c r="H1897" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1898">
@@ -57370,14 +57370,14 @@
       </c>
       <c r="F1898" t="inlineStr">
         <is>
-          <t>[70.0]</t>
+          <t>[44.876]</t>
         </is>
       </c>
       <c r="G1898" t="n">
-        <v>70</v>
+        <v>44.876</v>
       </c>
       <c r="H1898" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1899">
@@ -57400,14 +57400,14 @@
       </c>
       <c r="F1899" t="inlineStr">
         <is>
-          <t>[49.8]</t>
+          <t>[81.36636363636363]</t>
         </is>
       </c>
       <c r="G1899" t="n">
-        <v>49.8</v>
+        <v>81.36636363636363</v>
       </c>
       <c r="H1899" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1900">
@@ -57430,14 +57430,14 @@
       </c>
       <c r="F1900" t="inlineStr">
         <is>
-          <t>[61.2]</t>
+          <t>[35.28]</t>
         </is>
       </c>
       <c r="G1900" t="n">
-        <v>61.2</v>
+        <v>35.28</v>
       </c>
       <c r="H1900" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1901">
@@ -57460,14 +57460,14 @@
       </c>
       <c r="F1901" t="inlineStr">
         <is>
-          <t>[61.0]</t>
+          <t>[42.66666666666666]</t>
         </is>
       </c>
       <c r="G1901" t="n">
-        <v>61</v>
+        <v>42.66666666666666</v>
       </c>
       <c r="H1901" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1902">
@@ -57520,11 +57520,11 @@
       </c>
       <c r="F1903" t="inlineStr">
         <is>
-          <t>[68.104]</t>
+          <t>[52.54]</t>
         </is>
       </c>
       <c r="G1903" t="n">
-        <v>68.104</v>
+        <v>52.54</v>
       </c>
       <c r="H1903" t="n">
         <v>74</v>
@@ -57550,11 +57550,11 @@
       </c>
       <c r="F1904" t="inlineStr">
         <is>
-          <t>[47.06666666666666]</t>
+          <t>[53.85]</t>
         </is>
       </c>
       <c r="G1904" t="n">
-        <v>47.06666666666666</v>
+        <v>53.85</v>
       </c>
       <c r="H1904" t="n">
         <v>74</v>
@@ -57580,11 +57580,11 @@
       </c>
       <c r="F1905" t="inlineStr">
         <is>
-          <t>[65.0]</t>
+          <t>[4.39]</t>
         </is>
       </c>
       <c r="G1905" t="n">
-        <v>65</v>
+        <v>4.39</v>
       </c>
       <c r="H1905" t="n">
         <v>74</v>
@@ -57610,14 +57610,14 @@
       </c>
       <c r="F1906" t="inlineStr">
         <is>
-          <t>[53.85]</t>
+          <t>[77.29]</t>
         </is>
       </c>
       <c r="G1906" t="n">
-        <v>53.85</v>
+        <v>77.29000000000001</v>
       </c>
       <c r="H1906" t="n">
-        <v>74</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1907">
@@ -57640,11 +57640,11 @@
       </c>
       <c r="F1907" t="inlineStr">
         <is>
-          <t>[77.29]</t>
+          <t>[22.0]</t>
         </is>
       </c>
       <c r="G1907" t="n">
-        <v>77.29000000000001</v>
+        <v>22</v>
       </c>
       <c r="H1907" t="n">
         <v>77.29000000000001</v>
@@ -57670,11 +57670,11 @@
       </c>
       <c r="F1908" t="inlineStr">
         <is>
-          <t>[52.54]</t>
+          <t>[35.0]</t>
         </is>
       </c>
       <c r="G1908" t="n">
-        <v>52.54</v>
+        <v>35</v>
       </c>
       <c r="H1908" t="n">
         <v>77.29000000000001</v>
@@ -57700,11 +57700,11 @@
       </c>
       <c r="F1909" t="inlineStr">
         <is>
-          <t>[67.04]</t>
+          <t>[68.104]</t>
         </is>
       </c>
       <c r="G1909" t="n">
-        <v>67.04000000000001</v>
+        <v>68.104</v>
       </c>
       <c r="H1909" t="n">
         <v>77.29000000000001</v>
@@ -57730,11 +57730,11 @@
       </c>
       <c r="F1910" t="inlineStr">
         <is>
-          <t>[41.35]</t>
+          <t>[43.34999999999999]</t>
         </is>
       </c>
       <c r="G1910" t="n">
-        <v>41.35</v>
+        <v>43.34999999999999</v>
       </c>
       <c r="H1910" t="n">
         <v>77.29000000000001</v>
@@ -57760,11 +57760,11 @@
       </c>
       <c r="F1911" t="inlineStr">
         <is>
-          <t>[35.5]</t>
+          <t>[21.45]</t>
         </is>
       </c>
       <c r="G1911" t="n">
-        <v>35.5</v>
+        <v>21.45</v>
       </c>
       <c r="H1911" t="n">
         <v>77.29000000000001</v>
@@ -57790,11 +57790,11 @@
       </c>
       <c r="F1912" t="inlineStr">
         <is>
-          <t>[14.71666666666667]</t>
+          <t>[33.4]</t>
         </is>
       </c>
       <c r="G1912" t="n">
-        <v>14.71666666666667</v>
+        <v>33.4</v>
       </c>
       <c r="H1912" t="n">
         <v>77.29000000000001</v>
@@ -57820,11 +57820,11 @@
       </c>
       <c r="F1913" t="inlineStr">
         <is>
-          <t>[4.39]</t>
+          <t>[70.6]</t>
         </is>
       </c>
       <c r="G1913" t="n">
-        <v>4.39</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="H1913" t="n">
         <v>77.29000000000001</v>
@@ -57850,11 +57850,11 @@
       </c>
       <c r="F1914" t="inlineStr">
         <is>
-          <t>[74.2]</t>
+          <t>[61.0]</t>
         </is>
       </c>
       <c r="G1914" t="n">
-        <v>74.2</v>
+        <v>61</v>
       </c>
       <c r="H1914" t="n">
         <v>77.29000000000001</v>
@@ -57880,14 +57880,14 @@
       </c>
       <c r="F1915" t="inlineStr">
         <is>
-          <t>[80.53]</t>
+          <t>[56.848]</t>
         </is>
       </c>
       <c r="G1915" t="n">
-        <v>80.53</v>
+        <v>56.848</v>
       </c>
       <c r="H1915" t="n">
-        <v>80.53</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1916">
@@ -57910,14 +57910,14 @@
       </c>
       <c r="F1916" t="inlineStr">
         <is>
-          <t>[47.0]</t>
+          <t>[53.37]</t>
         </is>
       </c>
       <c r="G1916" t="n">
-        <v>47</v>
+        <v>53.37</v>
       </c>
       <c r="H1916" t="n">
-        <v>80.53</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1917">
@@ -57940,14 +57940,14 @@
       </c>
       <c r="F1917" t="inlineStr">
         <is>
-          <t>[63.16666666666666]</t>
+          <t>[89.99000000000001]</t>
         </is>
       </c>
       <c r="G1917" t="n">
-        <v>63.16666666666666</v>
+        <v>89.99000000000001</v>
       </c>
       <c r="H1917" t="n">
-        <v>80.53</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1918">
@@ -57970,14 +57970,14 @@
       </c>
       <c r="F1918" t="inlineStr">
         <is>
-          <t>[87.54]</t>
+          <t>[58.45]</t>
         </is>
       </c>
       <c r="G1918" t="n">
-        <v>87.54000000000001</v>
+        <v>58.45</v>
       </c>
       <c r="H1918" t="n">
-        <v>87.54000000000001</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1919">
@@ -58000,14 +58000,14 @@
       </c>
       <c r="F1919" t="inlineStr">
         <is>
-          <t>[20.036]</t>
+          <t>[63.16666666666666]</t>
         </is>
       </c>
       <c r="G1919" t="n">
-        <v>20.036</v>
+        <v>63.16666666666666</v>
       </c>
       <c r="H1919" t="n">
-        <v>87.54000000000001</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1920">
@@ -58030,14 +58030,14 @@
       </c>
       <c r="F1920" t="inlineStr">
         <is>
-          <t>[66.06]</t>
+          <t>[55.94]</t>
         </is>
       </c>
       <c r="G1920" t="n">
-        <v>66.06</v>
+        <v>55.94</v>
       </c>
       <c r="H1920" t="n">
-        <v>87.54000000000001</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1921">
@@ -58060,14 +58060,14 @@
       </c>
       <c r="F1921" t="inlineStr">
         <is>
-          <t>[93.59]</t>
+          <t>[86.69285714285715]</t>
         </is>
       </c>
       <c r="G1921" t="n">
-        <v>93.59</v>
+        <v>86.69285714285715</v>
       </c>
       <c r="H1921" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1922">
@@ -58090,14 +58090,14 @@
       </c>
       <c r="F1922" t="inlineStr">
         <is>
-          <t>[67.0]</t>
+          <t>[81.2]</t>
         </is>
       </c>
       <c r="G1922" t="n">
-        <v>67</v>
+        <v>81.2</v>
       </c>
       <c r="H1922" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1923">
@@ -58120,14 +58120,14 @@
       </c>
       <c r="F1923" t="inlineStr">
         <is>
-          <t>[55.94]</t>
+          <t>[61.2]</t>
         </is>
       </c>
       <c r="G1923" t="n">
-        <v>55.94</v>
+        <v>61.2</v>
       </c>
       <c r="H1923" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1924">
@@ -58150,14 +58150,14 @@
       </c>
       <c r="F1924" t="inlineStr">
         <is>
-          <t>[22.0]</t>
+          <t>[74.2]</t>
         </is>
       </c>
       <c r="G1924" t="n">
-        <v>22</v>
+        <v>74.2</v>
       </c>
       <c r="H1924" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1925">
@@ -58180,14 +58180,14 @@
       </c>
       <c r="F1925" t="inlineStr">
         <is>
-          <t>[92.24000000000001]</t>
+          <t>[66.06]</t>
         </is>
       </c>
       <c r="G1925" t="n">
-        <v>92.24000000000001</v>
+        <v>66.06</v>
       </c>
       <c r="H1925" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1926">
@@ -58210,14 +58210,14 @@
       </c>
       <c r="F1926" t="inlineStr">
         <is>
-          <t>[17.97666666666667]</t>
+          <t>[44.11]</t>
         </is>
       </c>
       <c r="G1926" t="n">
-        <v>17.97666666666667</v>
+        <v>44.11</v>
       </c>
       <c r="H1926" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1927">
@@ -58240,14 +58240,14 @@
       </c>
       <c r="F1927" t="inlineStr">
         <is>
-          <t>[78.075]</t>
+          <t>[15.484]</t>
         </is>
       </c>
       <c r="G1927" t="n">
-        <v>78.075</v>
+        <v>15.484</v>
       </c>
       <c r="H1927" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1928">
@@ -58270,14 +58270,14 @@
       </c>
       <c r="F1928" t="inlineStr">
         <is>
-          <t>[56.848]</t>
+          <t>[50.22799999999999]</t>
         </is>
       </c>
       <c r="G1928" t="n">
-        <v>56.848</v>
+        <v>50.22799999999999</v>
       </c>
       <c r="H1928" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1929">
@@ -58300,14 +58300,14 @@
       </c>
       <c r="F1929" t="inlineStr">
         <is>
-          <t>[81.71000000000001]</t>
+          <t>[81.36636363636363]</t>
         </is>
       </c>
       <c r="G1929" t="n">
-        <v>81.71000000000001</v>
+        <v>81.36636363636363</v>
       </c>
       <c r="H1929" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1930">
@@ -58330,14 +58330,14 @@
       </c>
       <c r="F1930" t="inlineStr">
         <is>
-          <t>[42.02]</t>
+          <t>[42.66666666666666]</t>
         </is>
       </c>
       <c r="G1930" t="n">
-        <v>42.02</v>
+        <v>42.66666666666666</v>
       </c>
       <c r="H1930" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1931">
@@ -58360,14 +58360,14 @@
       </c>
       <c r="F1931" t="inlineStr">
         <is>
-          <t>[43.34999999999999]</t>
+          <t>[67.0]</t>
         </is>
       </c>
       <c r="G1931" t="n">
-        <v>43.34999999999999</v>
+        <v>67</v>
       </c>
       <c r="H1931" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1932">
@@ -58390,14 +58390,14 @@
       </c>
       <c r="F1932" t="inlineStr">
         <is>
-          <t>[83.43]</t>
+          <t>[54.5]</t>
         </is>
       </c>
       <c r="G1932" t="n">
-        <v>83.43000000000001</v>
+        <v>54.5</v>
       </c>
       <c r="H1932" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1933">
@@ -58420,14 +58420,14 @@
       </c>
       <c r="F1933" t="inlineStr">
         <is>
-          <t>[65.0]</t>
+          <t>[73.975]</t>
         </is>
       </c>
       <c r="G1933" t="n">
-        <v>65</v>
+        <v>73.97499999999999</v>
       </c>
       <c r="H1933" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1934">
@@ -58450,14 +58450,14 @@
       </c>
       <c r="F1934" t="inlineStr">
         <is>
-          <t>[53.37]</t>
+          <t>[17.97666666666667]</t>
         </is>
       </c>
       <c r="G1934" t="n">
-        <v>53.37</v>
+        <v>17.97666666666667</v>
       </c>
       <c r="H1934" t="n">
-        <v>93.59</v>
+        <v>89.99000000000001</v>
       </c>
     </row>
     <row r="1935">
@@ -58480,14 +58480,14 @@
       </c>
       <c r="F1935" t="inlineStr">
         <is>
-          <t>[58.55]</t>
+          <t>[90.0]</t>
         </is>
       </c>
       <c r="G1935" t="n">
-        <v>58.55</v>
+        <v>90</v>
       </c>
       <c r="H1935" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1936">
@@ -58510,14 +58510,14 @@
       </c>
       <c r="F1936" t="inlineStr">
         <is>
-          <t>[67.4]</t>
+          <t>[80.08000000000001]</t>
         </is>
       </c>
       <c r="G1936" t="n">
-        <v>67.40000000000001</v>
+        <v>80.08000000000001</v>
       </c>
       <c r="H1936" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1937">
@@ -58540,14 +58540,14 @@
       </c>
       <c r="F1937" t="inlineStr">
         <is>
-          <t>[86.65]</t>
+          <t>[86.01]</t>
         </is>
       </c>
       <c r="G1937" t="n">
-        <v>86.65000000000001</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="H1937" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1938">
@@ -58570,14 +58570,14 @@
       </c>
       <c r="F1938" t="inlineStr">
         <is>
-          <t>[81.36636363636363]</t>
+          <t>[76.845]</t>
         </is>
       </c>
       <c r="G1938" t="n">
-        <v>81.36636363636363</v>
+        <v>76.845</v>
       </c>
       <c r="H1938" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1939">
@@ -58600,14 +58600,14 @@
       </c>
       <c r="F1939" t="inlineStr">
         <is>
-          <t>[42.0]</t>
+          <t>[40.03333333333333]</t>
         </is>
       </c>
       <c r="G1939" t="n">
-        <v>42</v>
+        <v>40.03333333333333</v>
       </c>
       <c r="H1939" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1940">
@@ -58630,14 +58630,14 @@
       </c>
       <c r="F1940" t="inlineStr">
         <is>
-          <t>[77.985]</t>
+          <t>[68.00666666666666]</t>
         </is>
       </c>
       <c r="G1940" t="n">
-        <v>77.985</v>
+        <v>68.00666666666666</v>
       </c>
       <c r="H1940" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1941">
@@ -58660,14 +58660,14 @@
       </c>
       <c r="F1941" t="inlineStr">
         <is>
-          <t>[81.2]</t>
+          <t>[23.8]</t>
         </is>
       </c>
       <c r="G1941" t="n">
-        <v>81.2</v>
+        <v>23.8</v>
       </c>
       <c r="H1941" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1942">
@@ -58690,14 +58690,14 @@
       </c>
       <c r="F1942" t="inlineStr">
         <is>
-          <t>[93.1]</t>
+          <t>[77.985]</t>
         </is>
       </c>
       <c r="G1942" t="n">
-        <v>93.09999999999999</v>
+        <v>77.985</v>
       </c>
       <c r="H1942" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1943">
@@ -58720,14 +58720,14 @@
       </c>
       <c r="F1943" t="inlineStr">
         <is>
-          <t>[95.8]</t>
+          <t>[93.1]</t>
         </is>
       </c>
       <c r="G1943" t="n">
-        <v>95.8</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="H1943" t="n">
-        <v>95.8</v>
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="1944">
@@ -58750,14 +58750,14 @@
       </c>
       <c r="F1944" t="inlineStr">
         <is>
-          <t>[96.2]</t>
+          <t>[95.8]</t>
         </is>
       </c>
       <c r="G1944" t="n">
-        <v>96.2</v>
+        <v>95.8</v>
       </c>
       <c r="H1944" t="n">
-        <v>96.2</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="1945">
@@ -58780,11 +58780,11 @@
       </c>
       <c r="F1945" t="inlineStr">
         <is>
-          <t>[73.9]</t>
+          <t>[96.2]</t>
         </is>
       </c>
       <c r="G1945" t="n">
-        <v>73.90000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="H1945" t="n">
         <v>96.2</v>
@@ -58810,11 +58810,11 @@
       </c>
       <c r="F1946" t="inlineStr">
         <is>
-          <t>[70.0]</t>
+          <t>[83.43]</t>
         </is>
       </c>
       <c r="G1946" t="n">
-        <v>70</v>
+        <v>83.43000000000001</v>
       </c>
       <c r="H1946" t="n">
         <v>96.2</v>
@@ -58840,11 +58840,11 @@
       </c>
       <c r="F1947" t="inlineStr">
         <is>
-          <t>[49.8]</t>
+          <t>[81.71000000000001]</t>
         </is>
       </c>
       <c r="G1947" t="n">
-        <v>49.8</v>
+        <v>81.71000000000001</v>
       </c>
       <c r="H1947" t="n">
         <v>96.2</v>
@@ -58870,11 +58870,11 @@
       </c>
       <c r="F1948" t="inlineStr">
         <is>
-          <t>[86.69285714285715]</t>
+          <t>[21.05]</t>
         </is>
       </c>
       <c r="G1948" t="n">
-        <v>86.69285714285715</v>
+        <v>21.05</v>
       </c>
       <c r="H1948" t="n">
         <v>96.2</v>
@@ -58900,11 +58900,11 @@
       </c>
       <c r="F1949" t="inlineStr">
         <is>
-          <t>[62.66666666666666]</t>
+          <t>[78.075]</t>
         </is>
       </c>
       <c r="G1949" t="n">
-        <v>62.66666666666666</v>
+        <v>78.075</v>
       </c>
       <c r="H1949" t="n">
         <v>96.2</v>
@@ -58930,11 +58930,11 @@
       </c>
       <c r="F1950" t="inlineStr">
         <is>
-          <t>[57.0]</t>
+          <t>[39.33]</t>
         </is>
       </c>
       <c r="G1950" t="n">
-        <v>57</v>
+        <v>39.33</v>
       </c>
       <c r="H1950" t="n">
         <v>96.2</v>
@@ -58960,11 +58960,11 @@
       </c>
       <c r="F1951" t="inlineStr">
         <is>
-          <t>[49.0]</t>
+          <t>[78.0]</t>
         </is>
       </c>
       <c r="G1951" t="n">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="H1951" t="n">
         <v>96.2</v>
@@ -59020,14 +59020,14 @@
       </c>
       <c r="F1953" t="inlineStr">
         <is>
-          <t>[57.86499999999999]</t>
+          <t>[52.54]</t>
         </is>
       </c>
       <c r="G1953" t="n">
-        <v>57.86499999999999</v>
+        <v>52.54</v>
       </c>
       <c r="H1953" t="n">
-        <v>57.86499999999999</v>
+        <v>52.54</v>
       </c>
     </row>
     <row r="1954">
@@ -59050,14 +59050,14 @@
       </c>
       <c r="F1954" t="inlineStr">
         <is>
-          <t>[47.06666666666666]</t>
+          <t>[49.8]</t>
         </is>
       </c>
       <c r="G1954" t="n">
-        <v>47.06666666666666</v>
+        <v>49.8</v>
       </c>
       <c r="H1954" t="n">
-        <v>57.86499999999999</v>
+        <v>52.54</v>
       </c>
     </row>
     <row r="1955">
@@ -59080,14 +59080,14 @@
       </c>
       <c r="F1955" t="inlineStr">
         <is>
-          <t>[65.0]</t>
+          <t>[47.06666666666666]</t>
         </is>
       </c>
       <c r="G1955" t="n">
-        <v>65</v>
+        <v>47.06666666666666</v>
       </c>
       <c r="H1955" t="n">
-        <v>65</v>
+        <v>52.54</v>
       </c>
     </row>
     <row r="1956">
@@ -59110,14 +59110,14 @@
       </c>
       <c r="F1956" t="inlineStr">
         <is>
-          <t>[53.85]</t>
+          <t>[77.29]</t>
         </is>
       </c>
       <c r="G1956" t="n">
-        <v>53.85</v>
+        <v>77.29000000000001</v>
       </c>
       <c r="H1956" t="n">
-        <v>65</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1957">
@@ -59140,14 +59140,14 @@
       </c>
       <c r="F1957" t="inlineStr">
         <is>
-          <t>[35.0]</t>
+          <t>[42.0]</t>
         </is>
       </c>
       <c r="G1957" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H1957" t="n">
-        <v>65</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1958">
@@ -59170,14 +59170,14 @@
       </c>
       <c r="F1958" t="inlineStr">
         <is>
-          <t>[52.54]</t>
+          <t>[41.35]</t>
         </is>
       </c>
       <c r="G1958" t="n">
-        <v>52.54</v>
+        <v>41.35</v>
       </c>
       <c r="H1958" t="n">
-        <v>65</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1959">
@@ -59200,14 +59200,14 @@
       </c>
       <c r="F1959" t="inlineStr">
         <is>
-          <t>[14.71666666666667]</t>
+          <t>[4.39]</t>
         </is>
       </c>
       <c r="G1959" t="n">
-        <v>14.71666666666667</v>
+        <v>4.39</v>
       </c>
       <c r="H1959" t="n">
-        <v>65</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1960">
@@ -59230,14 +59230,14 @@
       </c>
       <c r="F1960" t="inlineStr">
         <is>
-          <t>[54.5]</t>
+          <t>[43.34999999999999]</t>
         </is>
       </c>
       <c r="G1960" t="n">
-        <v>54.5</v>
+        <v>43.34999999999999</v>
       </c>
       <c r="H1960" t="n">
-        <v>65</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="1961">
@@ -59260,11 +59260,11 @@
       </c>
       <c r="F1961" t="inlineStr">
         <is>
-          <t>[77.29]</t>
+          <t>[39.33]</t>
         </is>
       </c>
       <c r="G1961" t="n">
-        <v>77.29000000000001</v>
+        <v>39.33</v>
       </c>
       <c r="H1961" t="n">
         <v>77.29000000000001</v>
@@ -59290,11 +59290,11 @@
       </c>
       <c r="F1962" t="inlineStr">
         <is>
-          <t>[41.35]</t>
+          <t>[70.9]</t>
         </is>
       </c>
       <c r="G1962" t="n">
-        <v>41.35</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="H1962" t="n">
         <v>77.29000000000001</v>
@@ -59320,14 +59320,14 @@
       </c>
       <c r="F1963" t="inlineStr">
         <is>
-          <t>[47.0]</t>
+          <t>[81.65]</t>
         </is>
       </c>
       <c r="G1963" t="n">
-        <v>47</v>
+        <v>81.65000000000001</v>
       </c>
       <c r="H1963" t="n">
-        <v>77.29000000000001</v>
+        <v>81.65000000000001</v>
       </c>
     </row>
     <row r="1964">
@@ -59350,14 +59350,14 @@
       </c>
       <c r="F1964" t="inlineStr">
         <is>
-          <t>[67.04]</t>
+          <t>[65.8]</t>
         </is>
       </c>
       <c r="G1964" t="n">
-        <v>67.04000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="H1964" t="n">
-        <v>77.29000000000001</v>
+        <v>81.65000000000001</v>
       </c>
     </row>
     <row r="1965">
@@ -59380,14 +59380,14 @@
       </c>
       <c r="F1965" t="inlineStr">
         <is>
-          <t>[74.2]</t>
+          <t>[22.0]</t>
         </is>
       </c>
       <c r="G1965" t="n">
-        <v>74.2</v>
+        <v>22</v>
       </c>
       <c r="H1965" t="n">
-        <v>77.29000000000001</v>
+        <v>81.65000000000001</v>
       </c>
     </row>
     <row r="1966">
@@ -59410,14 +59410,14 @@
       </c>
       <c r="F1966" t="inlineStr">
         <is>
-          <t>[80.53]</t>
+          <t>[85.78999999999999]</t>
         </is>
       </c>
       <c r="G1966" t="n">
-        <v>80.53</v>
+        <v>85.78999999999999</v>
       </c>
       <c r="H1966" t="n">
-        <v>80.53</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1967">
@@ -59440,14 +59440,14 @@
       </c>
       <c r="F1967" t="inlineStr">
         <is>
-          <t>[87.54]</t>
+          <t>[80.244]</t>
         </is>
       </c>
       <c r="G1967" t="n">
-        <v>87.54000000000001</v>
+        <v>80.244</v>
       </c>
       <c r="H1967" t="n">
-        <v>87.54000000000001</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1968">
@@ -59470,14 +59470,14 @@
       </c>
       <c r="F1968" t="inlineStr">
         <is>
-          <t>[93.59]</t>
+          <t>[35.0]</t>
         </is>
       </c>
       <c r="G1968" t="n">
-        <v>93.59</v>
+        <v>35</v>
       </c>
       <c r="H1968" t="n">
-        <v>93.59</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1969">
@@ -59500,14 +59500,14 @@
       </c>
       <c r="F1969" t="inlineStr">
         <is>
-          <t>[55.94]</t>
+          <t>[61.0]</t>
         </is>
       </c>
       <c r="G1969" t="n">
-        <v>55.94</v>
+        <v>61</v>
       </c>
       <c r="H1969" t="n">
-        <v>93.59</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1970">
@@ -59530,14 +59530,14 @@
       </c>
       <c r="F1970" t="inlineStr">
         <is>
-          <t>[92.24000000000001]</t>
+          <t>[54.5]</t>
         </is>
       </c>
       <c r="G1970" t="n">
-        <v>92.24000000000001</v>
+        <v>54.5</v>
       </c>
       <c r="H1970" t="n">
-        <v>93.59</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1971">
@@ -59560,14 +59560,14 @@
       </c>
       <c r="F1971" t="inlineStr">
         <is>
-          <t>[20.036]</t>
+          <t>[72.378]</t>
         </is>
       </c>
       <c r="G1971" t="n">
-        <v>20.036</v>
+        <v>72.378</v>
       </c>
       <c r="H1971" t="n">
-        <v>93.59</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1972">
@@ -59590,14 +59590,14 @@
       </c>
       <c r="F1972" t="inlineStr">
         <is>
-          <t>[78.075]</t>
+          <t>[67.0]</t>
         </is>
       </c>
       <c r="G1972" t="n">
-        <v>78.075</v>
+        <v>67</v>
       </c>
       <c r="H1972" t="n">
-        <v>93.59</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1973">
@@ -59620,14 +59620,14 @@
       </c>
       <c r="F1973" t="inlineStr">
         <is>
-          <t>[66.06]</t>
+          <t>[73.975]</t>
         </is>
       </c>
       <c r="G1973" t="n">
-        <v>66.06</v>
+        <v>73.97499999999999</v>
       </c>
       <c r="H1973" t="n">
-        <v>93.59</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1974">
@@ -59650,14 +59650,14 @@
       </c>
       <c r="F1974" t="inlineStr">
         <is>
-          <t>[42.0]</t>
+          <t>[79.74]</t>
         </is>
       </c>
       <c r="G1974" t="n">
-        <v>42</v>
+        <v>79.73999999999999</v>
       </c>
       <c r="H1974" t="n">
-        <v>93.59</v>
+        <v>85.78999999999999</v>
       </c>
     </row>
     <row r="1975">
@@ -59680,14 +59680,14 @@
       </c>
       <c r="F1975" t="inlineStr">
         <is>
-          <t>[43.34999999999999]</t>
+          <t>[90.0]</t>
         </is>
       </c>
       <c r="G1975" t="n">
-        <v>43.34999999999999</v>
+        <v>90</v>
       </c>
       <c r="H1975" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1976">
@@ -59710,14 +59710,14 @@
       </c>
       <c r="F1976" t="inlineStr">
         <is>
-          <t>[81.71000000000001]</t>
+          <t>[80.08000000000001]</t>
         </is>
       </c>
       <c r="G1976" t="n">
-        <v>81.71000000000001</v>
+        <v>80.08000000000001</v>
       </c>
       <c r="H1976" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1977">
@@ -59740,14 +59740,14 @@
       </c>
       <c r="F1977" t="inlineStr">
         <is>
-          <t>[67.0]</t>
+          <t>[86.01]</t>
         </is>
       </c>
       <c r="G1977" t="n">
-        <v>67</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="H1977" t="n">
-        <v>93.59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1978">
@@ -59770,14 +59770,14 @@
       </c>
       <c r="F1978" t="inlineStr">
         <is>
-          <t>[83.43]</t>
+          <t>[92.44333333333333]</t>
         </is>
       </c>
       <c r="G1978" t="n">
-        <v>83.43000000000001</v>
+        <v>92.44333333333333</v>
       </c>
       <c r="H1978" t="n">
-        <v>93.59</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1979">
@@ -59800,14 +59800,14 @@
       </c>
       <c r="F1979" t="inlineStr">
         <is>
-          <t>[58.45]</t>
+          <t>[88.53000000000002]</t>
         </is>
       </c>
       <c r="G1979" t="n">
-        <v>58.45</v>
+        <v>88.53000000000002</v>
       </c>
       <c r="H1979" t="n">
-        <v>93.59</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1980">
@@ -59830,14 +59830,14 @@
       </c>
       <c r="F1980" t="inlineStr">
         <is>
-          <t>[81.36636363636363]</t>
+          <t>[88.46666666666665]</t>
         </is>
       </c>
       <c r="G1980" t="n">
-        <v>81.36636363636363</v>
+        <v>88.46666666666665</v>
       </c>
       <c r="H1980" t="n">
-        <v>93.59</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1981">
@@ -59860,14 +59860,14 @@
       </c>
       <c r="F1981" t="inlineStr">
         <is>
-          <t>[93.1]</t>
+          <t>[89.99000000000001]</t>
         </is>
       </c>
       <c r="G1981" t="n">
-        <v>93.09999999999999</v>
+        <v>89.99000000000001</v>
       </c>
       <c r="H1981" t="n">
-        <v>93.59</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1982">
@@ -59890,14 +59890,14 @@
       </c>
       <c r="F1982" t="inlineStr">
         <is>
-          <t>[95.8]</t>
+          <t>[86.69285714285715]</t>
         </is>
       </c>
       <c r="G1982" t="n">
-        <v>95.8</v>
+        <v>86.69285714285715</v>
       </c>
       <c r="H1982" t="n">
-        <v>95.8</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1983">
@@ -59920,14 +59920,14 @@
       </c>
       <c r="F1983" t="inlineStr">
         <is>
-          <t>[96.2]</t>
+          <t>[92.24000000000001]</t>
         </is>
       </c>
       <c r="G1983" t="n">
-        <v>96.2</v>
+        <v>92.24000000000001</v>
       </c>
       <c r="H1983" t="n">
-        <v>96.2</v>
+        <v>92.44333333333333</v>
       </c>
     </row>
     <row r="1984">
@@ -59950,14 +59950,14 @@
       </c>
       <c r="F1984" t="inlineStr">
         <is>
-          <t>[58.55]</t>
+          <t>[93.59]</t>
         </is>
       </c>
       <c r="G1984" t="n">
-        <v>58.55</v>
+        <v>93.59</v>
       </c>
       <c r="H1984" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1985">
@@ -59980,14 +59980,14 @@
       </c>
       <c r="F1985" t="inlineStr">
         <is>
-          <t>[17.97666666666667]</t>
+          <t>[80.595]</t>
         </is>
       </c>
       <c r="G1985" t="n">
-        <v>17.97666666666667</v>
+        <v>80.595</v>
       </c>
       <c r="H1985" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1986">
@@ -60010,14 +60010,14 @@
       </c>
       <c r="F1986" t="inlineStr">
         <is>
-          <t>[67.4]</t>
+          <t>[90.66333333333334]</t>
         </is>
       </c>
       <c r="G1986" t="n">
-        <v>67.40000000000001</v>
+        <v>90.66333333333334</v>
       </c>
       <c r="H1986" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1987">
@@ -60040,14 +60040,14 @@
       </c>
       <c r="F1987" t="inlineStr">
         <is>
-          <t>[86.65]</t>
+          <t>[85.87666666666667]</t>
         </is>
       </c>
       <c r="G1987" t="n">
-        <v>86.65000000000001</v>
+        <v>85.87666666666667</v>
       </c>
       <c r="H1987" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1988">
@@ -60070,14 +60070,14 @@
       </c>
       <c r="F1988" t="inlineStr">
         <is>
-          <t>[73.9]</t>
+          <t>[50.22799999999999]</t>
         </is>
       </c>
       <c r="G1988" t="n">
-        <v>73.90000000000001</v>
+        <v>50.22799999999999</v>
       </c>
       <c r="H1988" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1989">
@@ -60100,14 +60100,14 @@
       </c>
       <c r="F1989" t="inlineStr">
         <is>
-          <t>[70.0]</t>
+          <t>[43.962]</t>
         </is>
       </c>
       <c r="G1989" t="n">
-        <v>70</v>
+        <v>43.962</v>
       </c>
       <c r="H1989" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1990">
@@ -60130,14 +60130,14 @@
       </c>
       <c r="F1990" t="inlineStr">
         <is>
-          <t>[49.8]</t>
+          <t>[87.54]</t>
         </is>
       </c>
       <c r="G1990" t="n">
-        <v>49.8</v>
+        <v>87.54000000000001</v>
       </c>
       <c r="H1990" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1991">
@@ -60160,14 +60160,14 @@
       </c>
       <c r="F1991" t="inlineStr">
         <is>
-          <t>[77.985]</t>
+          <t>[44.876]</t>
         </is>
       </c>
       <c r="G1991" t="n">
-        <v>77.985</v>
+        <v>44.876</v>
       </c>
       <c r="H1991" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1992">
@@ -60190,14 +60190,14 @@
       </c>
       <c r="F1992" t="inlineStr">
         <is>
-          <t>[62.66666666666666]</t>
+          <t>[81.36636363636363]</t>
         </is>
       </c>
       <c r="G1992" t="n">
-        <v>62.66666666666666</v>
+        <v>81.36636363636363</v>
       </c>
       <c r="H1992" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1993">
@@ -60220,14 +60220,14 @@
       </c>
       <c r="F1993" t="inlineStr">
         <is>
-          <t>[22.0]</t>
+          <t>[42.66666666666666]</t>
         </is>
       </c>
       <c r="G1993" t="n">
-        <v>22</v>
+        <v>42.66666666666666</v>
       </c>
       <c r="H1993" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1994">
@@ -60250,14 +60250,14 @@
       </c>
       <c r="F1994" t="inlineStr">
         <is>
-          <t>[57.0]</t>
+          <t>[36.85]</t>
         </is>
       </c>
       <c r="G1994" t="n">
-        <v>57</v>
+        <v>36.85</v>
       </c>
       <c r="H1994" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1995">
@@ -60280,14 +60280,14 @@
       </c>
       <c r="F1995" t="inlineStr">
         <is>
-          <t>[49.0]</t>
+          <t>[91.06]</t>
         </is>
       </c>
       <c r="G1995" t="n">
-        <v>49</v>
+        <v>91.06</v>
       </c>
       <c r="H1995" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1996">
@@ -60310,14 +60310,14 @@
       </c>
       <c r="F1996" t="inlineStr">
         <is>
-          <t>[42.66666666666666]</t>
+          <t>[83.38]</t>
         </is>
       </c>
       <c r="G1996" t="n">
-        <v>42.66666666666666</v>
+        <v>83.38</v>
       </c>
       <c r="H1996" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1997">
@@ -60340,14 +60340,14 @@
       </c>
       <c r="F1997" t="inlineStr">
         <is>
-          <t>[35.5]</t>
+          <t>[85.84]</t>
         </is>
       </c>
       <c r="G1997" t="n">
-        <v>35.5</v>
+        <v>85.84</v>
       </c>
       <c r="H1997" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1998">
@@ -60370,14 +60370,14 @@
       </c>
       <c r="F1998" t="inlineStr">
         <is>
-          <t>[42.5]</t>
+          <t>[82.95333333333333]</t>
         </is>
       </c>
       <c r="G1998" t="n">
-        <v>42.5</v>
+        <v>82.95333333333333</v>
       </c>
       <c r="H1998" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="1999">
@@ -60400,14 +60400,14 @@
       </c>
       <c r="F1999" t="inlineStr">
         <is>
-          <t>[63.16666666666666]</t>
+          <t>[80.53]</t>
         </is>
       </c>
       <c r="G1999" t="n">
-        <v>63.16666666666666</v>
+        <v>80.53</v>
       </c>
       <c r="H1999" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="2000">
@@ -60430,14 +60430,14 @@
       </c>
       <c r="F2000" t="inlineStr">
         <is>
-          <t>[56.848]</t>
+          <t>[82.46333333333332]</t>
         </is>
       </c>
       <c r="G2000" t="n">
-        <v>56.848</v>
+        <v>82.46333333333332</v>
       </c>
       <c r="H2000" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="2001">
@@ -60460,14 +60460,14 @@
       </c>
       <c r="F2001" t="inlineStr">
         <is>
-          <t>[23.35]</t>
+          <t>[81.2]</t>
         </is>
       </c>
       <c r="G2001" t="n">
-        <v>23.35</v>
+        <v>81.2</v>
       </c>
       <c r="H2001" t="n">
-        <v>96.2</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="2002">
